--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/PM_ProductBacklog_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/PM_ProductBacklog_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B36A8-5DA7-4252-BED7-A901FD193D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A34DBD-5868-4715-9A80-882E3F2BDE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -1537,9 +1537,9 @@
   </sheetPr>
   <dimension ref="A1:AE1033"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1965,8 +1965,12 @@
       <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24" t="s">
         <v>16</v>
@@ -2000,8 +2004,12 @@
       <c r="E11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24" t="s">
         <v>16</v>
@@ -2035,8 +2043,12 @@
       <c r="E12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24" t="s">
         <v>16</v>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/PM_ProductBacklog_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/PM_ProductBacklog_Ver1.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BFB901-4A90-4259-8A2B-5F589F0CA526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2088" yWindow="2088" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -152,19 +158,7 @@
     <t>Thông báo sinh nhật nhân viên</t>
   </si>
   <si>
-    <t>18/11/2019</t>
-  </si>
-  <si>
     <t>ASIGN TO</t>
-  </si>
-  <si>
-    <t>20/11/2019</t>
-  </si>
-  <si>
-    <t>25/11/2019</t>
-  </si>
-  <si>
-    <t>27/11/2019</t>
   </si>
   <si>
     <t>FR.01</t>
@@ -271,11 +265,44 @@
   <si>
     <t>FR.27</t>
   </si>
+  <si>
+    <t>23/12/2019</t>
+  </si>
+  <si>
+    <t>24/12/2019</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>2512/2019</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>30/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>17/2/2020</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>31/11/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1526,46 +1553,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE1033"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="18" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="18" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.25" style="4" customWidth="1"/>
-    <col min="11" max="13" width="17.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="4" customWidth="1"/>
-    <col min="15" max="31" width="10.75" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="11.25" style="4"/>
+    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="18" customWidth="1"/>
+    <col min="6" max="7" width="15.69921875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.19921875" style="4" customWidth="1"/>
+    <col min="11" max="13" width="17.69921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.19921875" style="4" customWidth="1"/>
+    <col min="15" max="31" width="10.69921875" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="11.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1597,7 +1624,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" s="18" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="18" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33" t="s">
         <v>0</v>
@@ -1618,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>6</v>
@@ -1646,10 +1673,10 @@
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
     </row>
-    <row r="3" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>17</v>
@@ -1661,10 +1688,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>44</v>
+      <c r="G3" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
@@ -1695,10 +1722,10 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="11" t="s">
@@ -1708,10 +1735,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
@@ -1743,10 +1770,10 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="11" t="s">
@@ -1756,10 +1783,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
@@ -1791,23 +1818,23 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
@@ -1837,10 +1864,10 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="11" t="s">
@@ -1850,10 +1877,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
@@ -1878,10 +1905,10 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="11" t="s">
@@ -1891,10 +1918,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
@@ -1917,10 +1944,10 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="11" t="s">
@@ -1930,10 +1957,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
@@ -1956,23 +1983,23 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
@@ -1995,23 +2022,23 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23" t="s">
@@ -2034,23 +2061,23 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23" t="s">
@@ -2073,23 +2100,23 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23" t="s">
@@ -2115,7 +2142,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
@@ -2145,10 +2172,10 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="54" t="s">
         <v>18</v>
@@ -2160,10 +2187,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
@@ -2189,10 +2216,10 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="11" t="s">
@@ -2202,10 +2229,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
@@ -2231,10 +2258,10 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="11" t="s">
@@ -2244,10 +2271,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23" t="s">
@@ -2273,23 +2300,23 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>46</v>
+      <c r="G18" s="22">
+        <v>43466</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23" t="s">
@@ -2315,23 +2342,23 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>46</v>
+      <c r="G19" s="22">
+        <v>43466</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
@@ -2357,10 +2384,10 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="24" t="s">
@@ -2370,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>46</v>
+      <c r="G20" s="22">
+        <v>43831</v>
       </c>
       <c r="H20" s="48"/>
       <c r="I20" s="23" t="s">
@@ -2399,7 +2426,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2430,10 +2457,10 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>19</v>
@@ -2445,10 +2472,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="22">
-        <v>43508</v>
+        <v>43983</v>
       </c>
       <c r="G22" s="22">
-        <v>43567</v>
+        <v>44075</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23" t="s">
@@ -2477,10 +2504,10 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="11" t="s">
@@ -2490,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="22">
-        <v>43508</v>
+        <v>43983</v>
       </c>
       <c r="G23" s="22">
-        <v>43567</v>
+        <v>44075</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
@@ -2522,10 +2549,10 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="11" t="s">
@@ -2535,10 +2562,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="22">
-        <v>43508</v>
+        <v>43983</v>
       </c>
       <c r="G24" s="22">
-        <v>43567</v>
+        <v>44075</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23" t="s">
@@ -2567,7 +2594,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="43"/>
       <c r="C25" s="44"/>
@@ -2600,10 +2627,10 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>20</v>
@@ -2615,10 +2642,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="22">
-        <v>43720</v>
+        <v>44106</v>
       </c>
       <c r="G26" s="22">
-        <v>43781</v>
+        <v>44167</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
@@ -2647,10 +2674,10 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="11" t="s">
@@ -2660,10 +2687,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="22">
-        <v>43720</v>
+        <v>44106</v>
       </c>
       <c r="G27" s="22">
-        <v>43781</v>
+        <v>44167</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23" t="s">
@@ -2692,10 +2719,10 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="11" t="s">
@@ -2705,10 +2732,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="22">
-        <v>43720</v>
+        <v>44106</v>
       </c>
       <c r="G28" s="22">
-        <v>43781</v>
+        <v>44167</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
@@ -2737,7 +2764,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10"/>
       <c r="C29" s="58"/>
@@ -2770,7 +2797,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="53"/>
@@ -2803,7 +2830,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
@@ -2836,10 +2863,10 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>21</v>
@@ -2850,11 +2877,11 @@
       <c r="E32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="22">
-        <v>43720</v>
+      <c r="F32" s="22" t="s">
+        <v>86</v>
       </c>
-      <c r="G32" s="22">
-        <v>43781</v>
+      <c r="G32" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="23" t="s">
@@ -2883,10 +2910,10 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="11" t="s">
@@ -2895,11 +2922,11 @@
       <c r="E33" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="22">
-        <v>43720</v>
+      <c r="F33" s="22" t="s">
+        <v>86</v>
       </c>
-      <c r="G33" s="22">
-        <v>43781</v>
+      <c r="G33" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="23" t="s">
@@ -2928,10 +2955,10 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="11" t="s">
@@ -2940,11 +2967,11 @@
       <c r="E34" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="22">
-        <v>43720</v>
+      <c r="F34" s="22" t="s">
+        <v>86</v>
       </c>
-      <c r="G34" s="22">
-        <v>43781</v>
+      <c r="G34" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="23" t="s">
@@ -2973,7 +3000,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="46"/>
       <c r="C35" s="47"/>
@@ -3006,10 +3033,10 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>34</v>
@@ -3020,11 +3047,11 @@
       <c r="E36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="22">
-        <v>43720</v>
+      <c r="F36" s="22" t="s">
+        <v>86</v>
       </c>
-      <c r="G36" s="22">
-        <v>43781</v>
+      <c r="G36" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="23" t="s">
@@ -3053,7 +3080,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="52"/>
@@ -3086,7 +3113,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="10"/>
       <c r="C38" s="52"/>
@@ -3119,7 +3146,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="53"/>
@@ -3152,7 +3179,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3172,7 +3199,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3192,7 +3219,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3212,7 +3239,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3232,7 +3259,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3252,7 +3279,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3272,7 +3299,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3291,7 +3318,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3309,7 +3336,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3329,13 +3356,13 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3355,7 +3382,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3375,7 +3402,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3395,7 +3422,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3415,7 +3442,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3435,7 +3462,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3455,7 +3482,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3475,7 +3502,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3495,7 +3522,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3515,7 +3542,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3535,7 +3562,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3555,7 +3582,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3575,7 +3602,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3595,7 +3622,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3615,7 +3642,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3635,7 +3662,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="14"/>
@@ -3655,7 +3682,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -3688,7 +3715,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -3721,7 +3748,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -3754,7 +3781,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -3787,7 +3814,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -3820,7 +3847,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -3853,7 +3880,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -3886,7 +3913,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -3919,7 +3946,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -3952,7 +3979,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -3985,7 +4012,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -4018,7 +4045,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -4051,7 +4078,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -4084,7 +4111,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -4117,7 +4144,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -4150,7 +4177,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -4183,7 +4210,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -4216,7 +4243,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -4249,7 +4276,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -4282,7 +4309,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -4315,7 +4342,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3"/>
@@ -4348,7 +4375,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3"/>
@@ -4381,7 +4408,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
@@ -4414,7 +4441,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -4447,7 +4474,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
@@ -4480,7 +4507,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3"/>
@@ -4513,7 +4540,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3"/>
@@ -4546,7 +4573,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -4579,7 +4606,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3"/>
@@ -4612,7 +4639,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3"/>
@@ -4645,7 +4672,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3"/>
@@ -4678,7 +4705,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -4711,7 +4738,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3"/>
@@ -4744,7 +4771,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3"/>
@@ -4777,7 +4804,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3"/>
@@ -4810,7 +4837,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
@@ -4843,7 +4870,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3"/>
@@ -4876,7 +4903,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3"/>
@@ -4909,7 +4936,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4942,7 +4969,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4975,7 +5002,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5008,7 +5035,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5041,7 +5068,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5074,7 +5101,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5107,7 +5134,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5140,7 +5167,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5173,7 +5200,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5206,7 +5233,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5239,7 +5266,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5272,7 +5299,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5305,7 +5332,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5338,7 +5365,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5371,7 +5398,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5404,7 +5431,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5437,7 +5464,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5470,7 +5497,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5503,7 +5530,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5536,7 +5563,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5569,7 +5596,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5602,7 +5629,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5635,7 +5662,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5668,7 +5695,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5701,7 +5728,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5734,7 +5761,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5767,7 +5794,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5800,7 +5827,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5833,7 +5860,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5866,7 +5893,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5899,7 +5926,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5932,7 +5959,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5965,7 +5992,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5998,7 +6025,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6031,7 +6058,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6064,7 +6091,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6097,7 +6124,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6130,7 +6157,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6163,7 +6190,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6196,7 +6223,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6229,7 +6256,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6262,7 +6289,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6295,7 +6322,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6328,7 +6355,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6361,7 +6388,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6394,7 +6421,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6427,7 +6454,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6460,7 +6487,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6493,7 +6520,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6526,7 +6553,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6559,7 +6586,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6592,7 +6619,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6625,7 +6652,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6658,7 +6685,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6691,7 +6718,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6724,7 +6751,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6757,7 +6784,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6790,7 +6817,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6823,7 +6850,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6856,7 +6883,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6889,7 +6916,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6922,7 +6949,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
     </row>
-    <row r="165" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6955,7 +6982,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
     </row>
-    <row r="166" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6988,7 +7015,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
     </row>
-    <row r="167" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7021,7 +7048,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
     </row>
-    <row r="168" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7054,7 +7081,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
     </row>
-    <row r="169" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7087,7 +7114,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
     </row>
-    <row r="170" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7120,7 +7147,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
     </row>
-    <row r="171" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7153,7 +7180,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
     </row>
-    <row r="172" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7186,7 +7213,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
     </row>
-    <row r="173" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7219,7 +7246,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
     </row>
-    <row r="174" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7252,7 +7279,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
     </row>
-    <row r="175" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7285,7 +7312,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
     </row>
-    <row r="176" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7318,7 +7345,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
     </row>
-    <row r="177" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7351,7 +7378,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
     </row>
-    <row r="178" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7384,7 +7411,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
     </row>
-    <row r="179" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7417,7 +7444,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
     </row>
-    <row r="180" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7450,7 +7477,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
     </row>
-    <row r="181" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7483,7 +7510,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
     </row>
-    <row r="182" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7516,7 +7543,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
     </row>
-    <row r="183" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7549,7 +7576,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
     </row>
-    <row r="184" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7582,7 +7609,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
     </row>
-    <row r="185" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7615,7 +7642,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
     </row>
-    <row r="186" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7648,7 +7675,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
     </row>
-    <row r="187" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7681,7 +7708,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
     </row>
-    <row r="188" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7714,7 +7741,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
     </row>
-    <row r="189" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7747,7 +7774,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
     </row>
-    <row r="190" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7780,7 +7807,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
     </row>
-    <row r="191" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7813,7 +7840,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
     </row>
-    <row r="192" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7846,7 +7873,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
     </row>
-    <row r="193" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7879,7 +7906,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
     </row>
-    <row r="194" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7912,7 +7939,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
     </row>
-    <row r="195" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7945,7 +7972,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
     </row>
-    <row r="196" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7978,7 +8005,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
     </row>
-    <row r="197" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8011,7 +8038,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
     </row>
-    <row r="198" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8044,7 +8071,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8077,7 +8104,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
     </row>
-    <row r="200" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8110,7 +8137,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8143,7 +8170,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8176,7 +8203,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8209,7 +8236,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8242,7 +8269,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8275,7 +8302,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
     </row>
-    <row r="206" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8308,7 +8335,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
     </row>
-    <row r="207" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8341,7 +8368,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8374,7 +8401,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8407,7 +8434,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8440,7 +8467,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8473,7 +8500,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8506,7 +8533,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
     </row>
-    <row r="213" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8539,7 +8566,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8572,7 +8599,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8605,7 +8632,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8638,7 +8665,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8671,7 +8698,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8704,7 +8731,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8737,7 +8764,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
     </row>
-    <row r="220" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8770,7 +8797,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8803,7 +8830,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8836,7 +8863,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8869,7 +8896,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8902,7 +8929,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8935,7 +8962,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8968,7 +8995,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
-    <row r="227" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -9001,7 +9028,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -9034,7 +9061,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -9067,7 +9094,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9100,7 +9127,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9133,7 +9160,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9166,7 +9193,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9199,7 +9226,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
     </row>
-    <row r="234" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9232,7 +9259,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
     </row>
-    <row r="235" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9265,7 +9292,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
     </row>
-    <row r="236" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9298,7 +9325,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
     </row>
-    <row r="237" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9331,7 +9358,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
     </row>
-    <row r="238" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9364,7 +9391,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
     </row>
-    <row r="239" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9397,7 +9424,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
     </row>
-    <row r="240" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9430,7 +9457,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
     </row>
-    <row r="241" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9463,7 +9490,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
     </row>
-    <row r="242" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9496,7 +9523,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
     </row>
-    <row r="243" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9529,7 +9556,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
     </row>
-    <row r="244" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9562,7 +9589,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
     </row>
-    <row r="245" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9595,7 +9622,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
     </row>
-    <row r="246" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9628,7 +9655,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
     </row>
-    <row r="247" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9661,7 +9688,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
     </row>
-    <row r="248" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9694,7 +9721,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
     </row>
-    <row r="249" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9727,7 +9754,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
     </row>
-    <row r="250" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9760,7 +9787,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
     </row>
-    <row r="251" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9793,7 +9820,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
     </row>
-    <row r="252" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9826,7 +9853,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
     </row>
-    <row r="253" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9859,7 +9886,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
     </row>
-    <row r="254" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9892,7 +9919,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
     </row>
-    <row r="255" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9925,7 +9952,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
     </row>
-    <row r="256" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9958,7 +9985,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
     </row>
-    <row r="257" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9991,7 +10018,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
     </row>
-    <row r="258" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -10024,7 +10051,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
     </row>
-    <row r="259" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -10057,7 +10084,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
     </row>
-    <row r="260" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10090,7 +10117,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
     </row>
-    <row r="261" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10123,7 +10150,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
     </row>
-    <row r="262" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10156,7 +10183,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
     </row>
-    <row r="263" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10189,7 +10216,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
     </row>
-    <row r="264" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10222,7 +10249,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10255,7 +10282,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10288,7 +10315,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10321,7 +10348,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10354,7 +10381,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10387,7 +10414,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
     </row>
-    <row r="270" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10420,7 +10447,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
     </row>
-    <row r="271" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10453,7 +10480,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10486,7 +10513,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10519,7 +10546,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10552,7 +10579,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10585,7 +10612,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10618,7 +10645,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
     </row>
-    <row r="277" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10651,7 +10678,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
     </row>
-    <row r="278" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10684,7 +10711,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10717,7 +10744,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10750,7 +10777,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10783,7 +10810,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10816,7 +10843,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10849,7 +10876,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
     </row>
-    <row r="284" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10882,7 +10909,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10915,7 +10942,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10948,7 +10975,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10981,7 +11008,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -11014,7 +11041,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -11047,7 +11074,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -11080,7 +11107,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11113,7 +11140,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
     </row>
-    <row r="292" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11146,7 +11173,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11179,7 +11206,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11212,7 +11239,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11245,7 +11272,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11278,7 +11305,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11311,7 +11338,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
     </row>
-    <row r="298" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11344,7 +11371,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
     </row>
-    <row r="299" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11377,7 +11404,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11410,7 +11437,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11443,7 +11470,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11476,7 +11503,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11509,7 +11536,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11542,7 +11569,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
     </row>
-    <row r="305" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11575,7 +11602,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11608,7 +11635,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
     </row>
-    <row r="307" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11641,7 +11668,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
     </row>
-    <row r="308" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11674,7 +11701,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
     </row>
-    <row r="309" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11707,7 +11734,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
     </row>
-    <row r="310" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11740,7 +11767,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
     </row>
-    <row r="311" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11773,7 +11800,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
     </row>
-    <row r="312" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11806,7 +11833,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
     </row>
-    <row r="313" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11839,7 +11866,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
     </row>
-    <row r="314" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11872,7 +11899,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
     </row>
-    <row r="315" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11905,7 +11932,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
     </row>
-    <row r="316" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11938,7 +11965,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
     </row>
-    <row r="317" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11971,7 +11998,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
     </row>
-    <row r="318" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -12004,7 +12031,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
     </row>
-    <row r="319" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -12037,7 +12064,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
     </row>
-    <row r="320" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -12070,7 +12097,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
     </row>
-    <row r="321" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -12103,7 +12130,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
     </row>
-    <row r="322" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -12136,7 +12163,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
     </row>
-    <row r="323" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -12169,7 +12196,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
     </row>
-    <row r="324" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -12202,7 +12229,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
     </row>
-    <row r="325" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12235,7 +12262,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
     </row>
-    <row r="326" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12268,7 +12295,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
     </row>
-    <row r="327" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12301,7 +12328,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
     </row>
-    <row r="328" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12334,7 +12361,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
     </row>
-    <row r="329" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12367,7 +12394,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
     </row>
-    <row r="330" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12400,7 +12427,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
     </row>
-    <row r="331" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12433,7 +12460,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
     </row>
-    <row r="332" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12466,7 +12493,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
     </row>
-    <row r="333" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12499,7 +12526,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
     </row>
-    <row r="334" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12532,7 +12559,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
     </row>
-    <row r="335" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12565,7 +12592,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
     </row>
-    <row r="336" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12598,7 +12625,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
     </row>
-    <row r="337" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12631,7 +12658,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
     </row>
-    <row r="338" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12664,7 +12691,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
     </row>
-    <row r="339" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12697,7 +12724,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
     </row>
-    <row r="340" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12730,7 +12757,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
     </row>
-    <row r="341" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12763,7 +12790,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
     </row>
-    <row r="342" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12796,7 +12823,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
     </row>
-    <row r="343" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12829,7 +12856,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
     </row>
-    <row r="344" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12862,7 +12889,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
     </row>
-    <row r="345" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12895,7 +12922,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
     </row>
-    <row r="346" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12928,7 +12955,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
     </row>
-    <row r="347" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12961,7 +12988,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
     </row>
-    <row r="348" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12994,7 +13021,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
     </row>
-    <row r="349" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -13027,7 +13054,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
     </row>
-    <row r="350" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -13060,7 +13087,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
     </row>
-    <row r="351" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -13093,7 +13120,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
     </row>
-    <row r="352" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -13126,7 +13153,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
     </row>
-    <row r="353" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -13159,7 +13186,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
     </row>
-    <row r="354" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -13192,7 +13219,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
     </row>
-    <row r="355" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -13225,7 +13252,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
     </row>
-    <row r="356" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13258,7 +13285,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
     </row>
-    <row r="357" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13291,7 +13318,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
     </row>
-    <row r="358" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13324,7 +13351,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
     </row>
-    <row r="359" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13357,7 +13384,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
     </row>
-    <row r="360" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13390,7 +13417,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
     </row>
-    <row r="361" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13423,7 +13450,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
     </row>
-    <row r="362" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13456,7 +13483,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
     </row>
-    <row r="363" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13489,7 +13516,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
     </row>
-    <row r="364" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13522,7 +13549,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
     </row>
-    <row r="365" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13555,7 +13582,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
     </row>
-    <row r="366" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13588,7 +13615,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
     </row>
-    <row r="367" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13621,7 +13648,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
     </row>
-    <row r="368" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13654,7 +13681,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
     </row>
-    <row r="369" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13687,7 +13714,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
     </row>
-    <row r="370" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13720,7 +13747,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
     </row>
-    <row r="371" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13753,7 +13780,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
     </row>
-    <row r="372" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13786,7 +13813,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
     </row>
-    <row r="373" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13819,7 +13846,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
     </row>
-    <row r="374" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13852,7 +13879,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
     </row>
-    <row r="375" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13885,7 +13912,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
     </row>
-    <row r="376" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13918,7 +13945,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
     </row>
-    <row r="377" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13951,7 +13978,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
     </row>
-    <row r="378" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13984,7 +14011,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
     </row>
-    <row r="379" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -14017,7 +14044,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
     </row>
-    <row r="380" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -14050,7 +14077,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
     </row>
-    <row r="381" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -14083,7 +14110,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
     </row>
-    <row r="382" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -14116,7 +14143,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
     </row>
-    <row r="383" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -14149,7 +14176,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
     </row>
-    <row r="384" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -14182,7 +14209,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
     </row>
-    <row r="385" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -14215,7 +14242,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
     </row>
-    <row r="386" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14248,7 +14275,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
     </row>
-    <row r="387" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14281,7 +14308,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
     </row>
-    <row r="388" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14314,7 +14341,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
     </row>
-    <row r="389" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14347,7 +14374,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
     </row>
-    <row r="390" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14380,7 +14407,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
     </row>
-    <row r="391" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14413,7 +14440,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
     </row>
-    <row r="392" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14446,7 +14473,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
     </row>
-    <row r="393" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14479,7 +14506,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
     </row>
-    <row r="394" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14512,7 +14539,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
     </row>
-    <row r="395" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14545,7 +14572,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
     </row>
-    <row r="396" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14578,7 +14605,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
     </row>
-    <row r="397" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14611,7 +14638,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
     </row>
-    <row r="398" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14644,7 +14671,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
     </row>
-    <row r="399" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14677,7 +14704,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
     </row>
-    <row r="400" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14710,7 +14737,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
     </row>
-    <row r="401" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14743,7 +14770,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
     </row>
-    <row r="402" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14776,7 +14803,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
     </row>
-    <row r="403" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14809,7 +14836,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
     </row>
-    <row r="404" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14842,7 +14869,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
     </row>
-    <row r="405" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14875,7 +14902,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
     </row>
-    <row r="406" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14908,7 +14935,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
     </row>
-    <row r="407" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14941,7 +14968,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
     </row>
-    <row r="408" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14974,7 +15001,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
     </row>
-    <row r="409" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -15007,7 +15034,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
     </row>
-    <row r="410" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -15040,7 +15067,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
     </row>
-    <row r="411" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -15073,7 +15100,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
     </row>
-    <row r="412" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -15106,7 +15133,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
     </row>
-    <row r="413" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -15139,7 +15166,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
     </row>
-    <row r="414" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -15172,7 +15199,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
     </row>
-    <row r="415" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -15205,7 +15232,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
     </row>
-    <row r="416" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -15238,7 +15265,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
     </row>
-    <row r="417" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -15271,7 +15298,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
     </row>
-    <row r="418" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -15304,7 +15331,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
     </row>
-    <row r="419" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -15337,7 +15364,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
     </row>
-    <row r="420" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -15370,7 +15397,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
     </row>
-    <row r="421" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15403,7 +15430,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
     </row>
-    <row r="422" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15436,7 +15463,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
     </row>
-    <row r="423" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15469,7 +15496,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
     </row>
-    <row r="424" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15502,7 +15529,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
     </row>
-    <row r="425" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15535,7 +15562,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
     </row>
-    <row r="426" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15568,7 +15595,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
     </row>
-    <row r="427" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15601,7 +15628,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
     </row>
-    <row r="428" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15634,7 +15661,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
     </row>
-    <row r="429" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15667,7 +15694,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
     </row>
-    <row r="430" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15700,7 +15727,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
     </row>
-    <row r="431" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15733,7 +15760,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
     </row>
-    <row r="432" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15766,7 +15793,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
     </row>
-    <row r="433" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15799,7 +15826,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
     </row>
-    <row r="434" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15832,7 +15859,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
     </row>
-    <row r="435" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15865,7 +15892,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
     </row>
-    <row r="436" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15898,7 +15925,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
     </row>
-    <row r="437" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15931,7 +15958,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
     </row>
-    <row r="438" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15964,7 +15991,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
     </row>
-    <row r="439" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15997,7 +16024,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
     </row>
-    <row r="440" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -16030,7 +16057,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
     </row>
-    <row r="441" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -16063,7 +16090,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
     </row>
-    <row r="442" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -16096,7 +16123,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
     </row>
-    <row r="443" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -16129,7 +16156,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
     </row>
-    <row r="444" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -16162,7 +16189,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
     </row>
-    <row r="445" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -16195,7 +16222,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
     </row>
-    <row r="446" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -16228,7 +16255,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
     </row>
-    <row r="447" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -16261,7 +16288,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
     </row>
-    <row r="448" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -16294,7 +16321,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
     </row>
-    <row r="449" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -16327,7 +16354,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
     </row>
-    <row r="450" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -16360,7 +16387,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
     </row>
-    <row r="451" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -16393,7 +16420,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
     </row>
-    <row r="452" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -16426,7 +16453,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
     </row>
-    <row r="453" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -16459,7 +16486,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
     </row>
-    <row r="454" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16492,7 +16519,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
     </row>
-    <row r="455" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16525,7 +16552,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
     </row>
-    <row r="456" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16558,7 +16585,7 @@
       <c r="AD456" s="1"/>
       <c r="AE456" s="1"/>
     </row>
-    <row r="457" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16591,7 +16618,7 @@
       <c r="AD457" s="1"/>
       <c r="AE457" s="1"/>
     </row>
-    <row r="458" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16624,7 +16651,7 @@
       <c r="AD458" s="1"/>
       <c r="AE458" s="1"/>
     </row>
-    <row r="459" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16657,7 +16684,7 @@
       <c r="AD459" s="1"/>
       <c r="AE459" s="1"/>
     </row>
-    <row r="460" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16690,7 +16717,7 @@
       <c r="AD460" s="1"/>
       <c r="AE460" s="1"/>
     </row>
-    <row r="461" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16723,7 +16750,7 @@
       <c r="AD461" s="1"/>
       <c r="AE461" s="1"/>
     </row>
-    <row r="462" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16756,7 +16783,7 @@
       <c r="AD462" s="1"/>
       <c r="AE462" s="1"/>
     </row>
-    <row r="463" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16789,7 +16816,7 @@
       <c r="AD463" s="1"/>
       <c r="AE463" s="1"/>
     </row>
-    <row r="464" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16822,7 +16849,7 @@
       <c r="AD464" s="1"/>
       <c r="AE464" s="1"/>
     </row>
-    <row r="465" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16855,7 +16882,7 @@
       <c r="AD465" s="1"/>
       <c r="AE465" s="1"/>
     </row>
-    <row r="466" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -16888,7 +16915,7 @@
       <c r="AD466" s="1"/>
       <c r="AE466" s="1"/>
     </row>
-    <row r="467" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -16921,7 +16948,7 @@
       <c r="AD467" s="1"/>
       <c r="AE467" s="1"/>
     </row>
-    <row r="468" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -16954,7 +16981,7 @@
       <c r="AD468" s="1"/>
       <c r="AE468" s="1"/>
     </row>
-    <row r="469" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -16987,7 +17014,7 @@
       <c r="AD469" s="1"/>
       <c r="AE469" s="1"/>
     </row>
-    <row r="470" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -17020,7 +17047,7 @@
       <c r="AD470" s="1"/>
       <c r="AE470" s="1"/>
     </row>
-    <row r="471" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -17053,7 +17080,7 @@
       <c r="AD471" s="1"/>
       <c r="AE471" s="1"/>
     </row>
-    <row r="472" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -17086,7 +17113,7 @@
       <c r="AD472" s="1"/>
       <c r="AE472" s="1"/>
     </row>
-    <row r="473" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -17119,7 +17146,7 @@
       <c r="AD473" s="1"/>
       <c r="AE473" s="1"/>
     </row>
-    <row r="474" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -17152,7 +17179,7 @@
       <c r="AD474" s="1"/>
       <c r="AE474" s="1"/>
     </row>
-    <row r="475" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -17185,7 +17212,7 @@
       <c r="AD475" s="1"/>
       <c r="AE475" s="1"/>
     </row>
-    <row r="476" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -17218,7 +17245,7 @@
       <c r="AD476" s="1"/>
       <c r="AE476" s="1"/>
     </row>
-    <row r="477" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -17251,7 +17278,7 @@
       <c r="AD477" s="1"/>
       <c r="AE477" s="1"/>
     </row>
-    <row r="478" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -17284,7 +17311,7 @@
       <c r="AD478" s="1"/>
       <c r="AE478" s="1"/>
     </row>
-    <row r="479" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -17317,7 +17344,7 @@
       <c r="AD479" s="1"/>
       <c r="AE479" s="1"/>
     </row>
-    <row r="480" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -17350,7 +17377,7 @@
       <c r="AD480" s="1"/>
       <c r="AE480" s="1"/>
     </row>
-    <row r="481" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -17383,7 +17410,7 @@
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
     </row>
-    <row r="482" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -17416,7 +17443,7 @@
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
     </row>
-    <row r="483" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -17449,7 +17476,7 @@
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
     </row>
-    <row r="484" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -17482,7 +17509,7 @@
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
     </row>
-    <row r="485" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -17515,7 +17542,7 @@
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
     </row>
-    <row r="486" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17548,7 +17575,7 @@
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
     </row>
-    <row r="487" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17581,7 +17608,7 @@
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
     </row>
-    <row r="488" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17614,7 +17641,7 @@
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
     </row>
-    <row r="489" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17647,7 +17674,7 @@
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
     </row>
-    <row r="490" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17680,7 +17707,7 @@
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
     </row>
-    <row r="491" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17713,7 +17740,7 @@
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
     </row>
-    <row r="492" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17746,7 +17773,7 @@
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
     </row>
-    <row r="493" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17779,7 +17806,7 @@
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
     </row>
-    <row r="494" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17812,7 +17839,7 @@
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
     </row>
-    <row r="495" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -17845,7 +17872,7 @@
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
     </row>
-    <row r="496" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -17878,7 +17905,7 @@
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
     </row>
-    <row r="497" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -17911,7 +17938,7 @@
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
     </row>
-    <row r="498" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -17944,7 +17971,7 @@
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
     </row>
-    <row r="499" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -17977,7 +18004,7 @@
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
     </row>
-    <row r="500" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -18010,7 +18037,7 @@
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
     </row>
-    <row r="501" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -18043,7 +18070,7 @@
       <c r="AD501" s="1"/>
       <c r="AE501" s="1"/>
     </row>
-    <row r="502" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -18076,7 +18103,7 @@
       <c r="AD502" s="1"/>
       <c r="AE502" s="1"/>
     </row>
-    <row r="503" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -18109,7 +18136,7 @@
       <c r="AD503" s="1"/>
       <c r="AE503" s="1"/>
     </row>
-    <row r="504" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -18142,7 +18169,7 @@
       <c r="AD504" s="1"/>
       <c r="AE504" s="1"/>
     </row>
-    <row r="505" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -18175,7 +18202,7 @@
       <c r="AD505" s="1"/>
       <c r="AE505" s="1"/>
     </row>
-    <row r="506" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -18208,7 +18235,7 @@
       <c r="AD506" s="1"/>
       <c r="AE506" s="1"/>
     </row>
-    <row r="507" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -18241,7 +18268,7 @@
       <c r="AD507" s="1"/>
       <c r="AE507" s="1"/>
     </row>
-    <row r="508" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -18274,7 +18301,7 @@
       <c r="AD508" s="1"/>
       <c r="AE508" s="1"/>
     </row>
-    <row r="509" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -18307,7 +18334,7 @@
       <c r="AD509" s="1"/>
       <c r="AE509" s="1"/>
     </row>
-    <row r="510" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -18340,7 +18367,7 @@
       <c r="AD510" s="1"/>
       <c r="AE510" s="1"/>
     </row>
-    <row r="511" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -18373,7 +18400,7 @@
       <c r="AD511" s="1"/>
       <c r="AE511" s="1"/>
     </row>
-    <row r="512" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -18406,7 +18433,7 @@
       <c r="AD512" s="1"/>
       <c r="AE512" s="1"/>
     </row>
-    <row r="513" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -18439,7 +18466,7 @@
       <c r="AD513" s="1"/>
       <c r="AE513" s="1"/>
     </row>
-    <row r="514" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -18472,7 +18499,7 @@
       <c r="AD514" s="1"/>
       <c r="AE514" s="1"/>
     </row>
-    <row r="515" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -18505,7 +18532,7 @@
       <c r="AD515" s="1"/>
       <c r="AE515" s="1"/>
     </row>
-    <row r="516" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -18538,7 +18565,7 @@
       <c r="AD516" s="1"/>
       <c r="AE516" s="1"/>
     </row>
-    <row r="517" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -18571,7 +18598,7 @@
       <c r="AD517" s="1"/>
       <c r="AE517" s="1"/>
     </row>
-    <row r="518" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18604,7 +18631,7 @@
       <c r="AD518" s="1"/>
       <c r="AE518" s="1"/>
     </row>
-    <row r="519" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18637,7 +18664,7 @@
       <c r="AD519" s="1"/>
       <c r="AE519" s="1"/>
     </row>
-    <row r="520" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18670,7 +18697,7 @@
       <c r="AD520" s="1"/>
       <c r="AE520" s="1"/>
     </row>
-    <row r="521" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18703,7 +18730,7 @@
       <c r="AD521" s="1"/>
       <c r="AE521" s="1"/>
     </row>
-    <row r="522" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18736,7 +18763,7 @@
       <c r="AD522" s="1"/>
       <c r="AE522" s="1"/>
     </row>
-    <row r="523" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18769,7 +18796,7 @@
       <c r="AD523" s="1"/>
       <c r="AE523" s="1"/>
     </row>
-    <row r="524" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18802,7 +18829,7 @@
       <c r="AD524" s="1"/>
       <c r="AE524" s="1"/>
     </row>
-    <row r="525" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -18835,7 +18862,7 @@
       <c r="AD525" s="1"/>
       <c r="AE525" s="1"/>
     </row>
-    <row r="526" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -18868,7 +18895,7 @@
       <c r="AD526" s="1"/>
       <c r="AE526" s="1"/>
     </row>
-    <row r="527" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -18901,7 +18928,7 @@
       <c r="AD527" s="1"/>
       <c r="AE527" s="1"/>
     </row>
-    <row r="528" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -18934,7 +18961,7 @@
       <c r="AD528" s="1"/>
       <c r="AE528" s="1"/>
     </row>
-    <row r="529" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -18967,7 +18994,7 @@
       <c r="AD529" s="1"/>
       <c r="AE529" s="1"/>
     </row>
-    <row r="530" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -19000,7 +19027,7 @@
       <c r="AD530" s="1"/>
       <c r="AE530" s="1"/>
     </row>
-    <row r="531" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -19033,7 +19060,7 @@
       <c r="AD531" s="1"/>
       <c r="AE531" s="1"/>
     </row>
-    <row r="532" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -19066,7 +19093,7 @@
       <c r="AD532" s="1"/>
       <c r="AE532" s="1"/>
     </row>
-    <row r="533" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -19099,7 +19126,7 @@
       <c r="AD533" s="1"/>
       <c r="AE533" s="1"/>
     </row>
-    <row r="534" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -19132,7 +19159,7 @@
       <c r="AD534" s="1"/>
       <c r="AE534" s="1"/>
     </row>
-    <row r="535" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -19165,7 +19192,7 @@
       <c r="AD535" s="1"/>
       <c r="AE535" s="1"/>
     </row>
-    <row r="536" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -19198,7 +19225,7 @@
       <c r="AD536" s="1"/>
       <c r="AE536" s="1"/>
     </row>
-    <row r="537" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -19231,7 +19258,7 @@
       <c r="AD537" s="1"/>
       <c r="AE537" s="1"/>
     </row>
-    <row r="538" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -19264,7 +19291,7 @@
       <c r="AD538" s="1"/>
       <c r="AE538" s="1"/>
     </row>
-    <row r="539" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -19297,7 +19324,7 @@
       <c r="AD539" s="1"/>
       <c r="AE539" s="1"/>
     </row>
-    <row r="540" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -19330,7 +19357,7 @@
       <c r="AD540" s="1"/>
       <c r="AE540" s="1"/>
     </row>
-    <row r="541" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -19363,7 +19390,7 @@
       <c r="AD541" s="1"/>
       <c r="AE541" s="1"/>
     </row>
-    <row r="542" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -19396,7 +19423,7 @@
       <c r="AD542" s="1"/>
       <c r="AE542" s="1"/>
     </row>
-    <row r="543" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -19429,7 +19456,7 @@
       <c r="AD543" s="1"/>
       <c r="AE543" s="1"/>
     </row>
-    <row r="544" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -19462,7 +19489,7 @@
       <c r="AD544" s="1"/>
       <c r="AE544" s="1"/>
     </row>
-    <row r="545" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -19495,7 +19522,7 @@
       <c r="AD545" s="1"/>
       <c r="AE545" s="1"/>
     </row>
-    <row r="546" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -19528,7 +19555,7 @@
       <c r="AD546" s="1"/>
       <c r="AE546" s="1"/>
     </row>
-    <row r="547" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -19561,7 +19588,7 @@
       <c r="AD547" s="1"/>
       <c r="AE547" s="1"/>
     </row>
-    <row r="548" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -19594,7 +19621,7 @@
       <c r="AD548" s="1"/>
       <c r="AE548" s="1"/>
     </row>
-    <row r="549" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -19627,7 +19654,7 @@
       <c r="AD549" s="1"/>
       <c r="AE549" s="1"/>
     </row>
-    <row r="550" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -19660,7 +19687,7 @@
       <c r="AD550" s="1"/>
       <c r="AE550" s="1"/>
     </row>
-    <row r="551" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19693,7 +19720,7 @@
       <c r="AD551" s="1"/>
       <c r="AE551" s="1"/>
     </row>
-    <row r="552" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19726,7 +19753,7 @@
       <c r="AD552" s="1"/>
       <c r="AE552" s="1"/>
     </row>
-    <row r="553" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19759,7 +19786,7 @@
       <c r="AD553" s="1"/>
       <c r="AE553" s="1"/>
     </row>
-    <row r="554" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -19792,7 +19819,7 @@
       <c r="AD554" s="1"/>
       <c r="AE554" s="1"/>
     </row>
-    <row r="555" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -19825,7 +19852,7 @@
       <c r="AD555" s="1"/>
       <c r="AE555" s="1"/>
     </row>
-    <row r="556" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -19858,7 +19885,7 @@
       <c r="AD556" s="1"/>
       <c r="AE556" s="1"/>
     </row>
-    <row r="557" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -19891,7 +19918,7 @@
       <c r="AD557" s="1"/>
       <c r="AE557" s="1"/>
     </row>
-    <row r="558" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -19924,7 +19951,7 @@
       <c r="AD558" s="1"/>
       <c r="AE558" s="1"/>
     </row>
-    <row r="559" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -19957,7 +19984,7 @@
       <c r="AD559" s="1"/>
       <c r="AE559" s="1"/>
     </row>
-    <row r="560" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -19990,7 +20017,7 @@
       <c r="AD560" s="1"/>
       <c r="AE560" s="1"/>
     </row>
-    <row r="561" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -20023,7 +20050,7 @@
       <c r="AD561" s="1"/>
       <c r="AE561" s="1"/>
     </row>
-    <row r="562" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -20056,7 +20083,7 @@
       <c r="AD562" s="1"/>
       <c r="AE562" s="1"/>
     </row>
-    <row r="563" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -20089,7 +20116,7 @@
       <c r="AD563" s="1"/>
       <c r="AE563" s="1"/>
     </row>
-    <row r="564" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -20122,7 +20149,7 @@
       <c r="AD564" s="1"/>
       <c r="AE564" s="1"/>
     </row>
-    <row r="565" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -20155,7 +20182,7 @@
       <c r="AD565" s="1"/>
       <c r="AE565" s="1"/>
     </row>
-    <row r="566" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -20188,7 +20215,7 @@
       <c r="AD566" s="1"/>
       <c r="AE566" s="1"/>
     </row>
-    <row r="567" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -20221,7 +20248,7 @@
       <c r="AD567" s="1"/>
       <c r="AE567" s="1"/>
     </row>
-    <row r="568" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -20254,7 +20281,7 @@
       <c r="AD568" s="1"/>
       <c r="AE568" s="1"/>
     </row>
-    <row r="569" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -20287,7 +20314,7 @@
       <c r="AD569" s="1"/>
       <c r="AE569" s="1"/>
     </row>
-    <row r="570" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -20320,7 +20347,7 @@
       <c r="AD570" s="1"/>
       <c r="AE570" s="1"/>
     </row>
-    <row r="571" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -20353,7 +20380,7 @@
       <c r="AD571" s="1"/>
       <c r="AE571" s="1"/>
     </row>
-    <row r="572" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -20386,7 +20413,7 @@
       <c r="AD572" s="1"/>
       <c r="AE572" s="1"/>
     </row>
-    <row r="573" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -20419,7 +20446,7 @@
       <c r="AD573" s="1"/>
       <c r="AE573" s="1"/>
     </row>
-    <row r="574" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -20452,7 +20479,7 @@
       <c r="AD574" s="1"/>
       <c r="AE574" s="1"/>
     </row>
-    <row r="575" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -20485,7 +20512,7 @@
       <c r="AD575" s="1"/>
       <c r="AE575" s="1"/>
     </row>
-    <row r="576" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -20518,7 +20545,7 @@
       <c r="AD576" s="1"/>
       <c r="AE576" s="1"/>
     </row>
-    <row r="577" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -20551,7 +20578,7 @@
       <c r="AD577" s="1"/>
       <c r="AE577" s="1"/>
     </row>
-    <row r="578" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -20584,7 +20611,7 @@
       <c r="AD578" s="1"/>
       <c r="AE578" s="1"/>
     </row>
-    <row r="579" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -20617,7 +20644,7 @@
       <c r="AD579" s="1"/>
       <c r="AE579" s="1"/>
     </row>
-    <row r="580" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -20650,7 +20677,7 @@
       <c r="AD580" s="1"/>
       <c r="AE580" s="1"/>
     </row>
-    <row r="581" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -20683,7 +20710,7 @@
       <c r="AD581" s="1"/>
       <c r="AE581" s="1"/>
     </row>
-    <row r="582" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -20716,7 +20743,7 @@
       <c r="AD582" s="1"/>
       <c r="AE582" s="1"/>
     </row>
-    <row r="583" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20749,7 +20776,7 @@
       <c r="AD583" s="1"/>
       <c r="AE583" s="1"/>
     </row>
-    <row r="584" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -20782,7 +20809,7 @@
       <c r="AD584" s="1"/>
       <c r="AE584" s="1"/>
     </row>
-    <row r="585" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -20815,7 +20842,7 @@
       <c r="AD585" s="1"/>
       <c r="AE585" s="1"/>
     </row>
-    <row r="586" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -20848,7 +20875,7 @@
       <c r="AD586" s="1"/>
       <c r="AE586" s="1"/>
     </row>
-    <row r="587" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -20881,7 +20908,7 @@
       <c r="AD587" s="1"/>
       <c r="AE587" s="1"/>
     </row>
-    <row r="588" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -20914,7 +20941,7 @@
       <c r="AD588" s="1"/>
       <c r="AE588" s="1"/>
     </row>
-    <row r="589" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -20947,7 +20974,7 @@
       <c r="AD589" s="1"/>
       <c r="AE589" s="1"/>
     </row>
-    <row r="590" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -20980,7 +21007,7 @@
       <c r="AD590" s="1"/>
       <c r="AE590" s="1"/>
     </row>
-    <row r="591" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -21013,7 +21040,7 @@
       <c r="AD591" s="1"/>
       <c r="AE591" s="1"/>
     </row>
-    <row r="592" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -21046,7 +21073,7 @@
       <c r="AD592" s="1"/>
       <c r="AE592" s="1"/>
     </row>
-    <row r="593" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -21079,7 +21106,7 @@
       <c r="AD593" s="1"/>
       <c r="AE593" s="1"/>
     </row>
-    <row r="594" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -21112,7 +21139,7 @@
       <c r="AD594" s="1"/>
       <c r="AE594" s="1"/>
     </row>
-    <row r="595" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -21145,7 +21172,7 @@
       <c r="AD595" s="1"/>
       <c r="AE595" s="1"/>
     </row>
-    <row r="596" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -21178,7 +21205,7 @@
       <c r="AD596" s="1"/>
       <c r="AE596" s="1"/>
     </row>
-    <row r="597" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -21211,7 +21238,7 @@
       <c r="AD597" s="1"/>
       <c r="AE597" s="1"/>
     </row>
-    <row r="598" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -21244,7 +21271,7 @@
       <c r="AD598" s="1"/>
       <c r="AE598" s="1"/>
     </row>
-    <row r="599" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -21277,7 +21304,7 @@
       <c r="AD599" s="1"/>
       <c r="AE599" s="1"/>
     </row>
-    <row r="600" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -21310,7 +21337,7 @@
       <c r="AD600" s="1"/>
       <c r="AE600" s="1"/>
     </row>
-    <row r="601" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -21343,7 +21370,7 @@
       <c r="AD601" s="1"/>
       <c r="AE601" s="1"/>
     </row>
-    <row r="602" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -21376,7 +21403,7 @@
       <c r="AD602" s="1"/>
       <c r="AE602" s="1"/>
     </row>
-    <row r="603" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -21409,7 +21436,7 @@
       <c r="AD603" s="1"/>
       <c r="AE603" s="1"/>
     </row>
-    <row r="604" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -21442,7 +21469,7 @@
       <c r="AD604" s="1"/>
       <c r="AE604" s="1"/>
     </row>
-    <row r="605" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -21475,7 +21502,7 @@
       <c r="AD605" s="1"/>
       <c r="AE605" s="1"/>
     </row>
-    <row r="606" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -21508,7 +21535,7 @@
       <c r="AD606" s="1"/>
       <c r="AE606" s="1"/>
     </row>
-    <row r="607" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -21541,7 +21568,7 @@
       <c r="AD607" s="1"/>
       <c r="AE607" s="1"/>
     </row>
-    <row r="608" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -21574,7 +21601,7 @@
       <c r="AD608" s="1"/>
       <c r="AE608" s="1"/>
     </row>
-    <row r="609" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -21607,7 +21634,7 @@
       <c r="AD609" s="1"/>
       <c r="AE609" s="1"/>
     </row>
-    <row r="610" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -21640,7 +21667,7 @@
       <c r="AD610" s="1"/>
       <c r="AE610" s="1"/>
     </row>
-    <row r="611" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -21673,7 +21700,7 @@
       <c r="AD611" s="1"/>
       <c r="AE611" s="1"/>
     </row>
-    <row r="612" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -21706,7 +21733,7 @@
       <c r="AD612" s="1"/>
       <c r="AE612" s="1"/>
     </row>
-    <row r="613" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -21739,7 +21766,7 @@
       <c r="AD613" s="1"/>
       <c r="AE613" s="1"/>
     </row>
-    <row r="614" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -21772,7 +21799,7 @@
       <c r="AD614" s="1"/>
       <c r="AE614" s="1"/>
     </row>
-    <row r="615" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -21805,7 +21832,7 @@
       <c r="AD615" s="1"/>
       <c r="AE615" s="1"/>
     </row>
-    <row r="616" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -21838,7 +21865,7 @@
       <c r="AD616" s="1"/>
       <c r="AE616" s="1"/>
     </row>
-    <row r="617" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -21871,7 +21898,7 @@
       <c r="AD617" s="1"/>
       <c r="AE617" s="1"/>
     </row>
-    <row r="618" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -21904,7 +21931,7 @@
       <c r="AD618" s="1"/>
       <c r="AE618" s="1"/>
     </row>
-    <row r="619" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -21937,7 +21964,7 @@
       <c r="AD619" s="1"/>
       <c r="AE619" s="1"/>
     </row>
-    <row r="620" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -21970,7 +21997,7 @@
       <c r="AD620" s="1"/>
       <c r="AE620" s="1"/>
     </row>
-    <row r="621" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -22003,7 +22030,7 @@
       <c r="AD621" s="1"/>
       <c r="AE621" s="1"/>
     </row>
-    <row r="622" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -22036,7 +22063,7 @@
       <c r="AD622" s="1"/>
       <c r="AE622" s="1"/>
     </row>
-    <row r="623" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -22069,7 +22096,7 @@
       <c r="AD623" s="1"/>
       <c r="AE623" s="1"/>
     </row>
-    <row r="624" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -22102,7 +22129,7 @@
       <c r="AD624" s="1"/>
       <c r="AE624" s="1"/>
     </row>
-    <row r="625" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -22135,7 +22162,7 @@
       <c r="AD625" s="1"/>
       <c r="AE625" s="1"/>
     </row>
-    <row r="626" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -22168,7 +22195,7 @@
       <c r="AD626" s="1"/>
       <c r="AE626" s="1"/>
     </row>
-    <row r="627" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -22201,7 +22228,7 @@
       <c r="AD627" s="1"/>
       <c r="AE627" s="1"/>
     </row>
-    <row r="628" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -22234,7 +22261,7 @@
       <c r="AD628" s="1"/>
       <c r="AE628" s="1"/>
     </row>
-    <row r="629" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -22267,7 +22294,7 @@
       <c r="AD629" s="1"/>
       <c r="AE629" s="1"/>
     </row>
-    <row r="630" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -22300,7 +22327,7 @@
       <c r="AD630" s="1"/>
       <c r="AE630" s="1"/>
     </row>
-    <row r="631" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -22333,7 +22360,7 @@
       <c r="AD631" s="1"/>
       <c r="AE631" s="1"/>
     </row>
-    <row r="632" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -22366,7 +22393,7 @@
       <c r="AD632" s="1"/>
       <c r="AE632" s="1"/>
     </row>
-    <row r="633" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -22399,7 +22426,7 @@
       <c r="AD633" s="1"/>
       <c r="AE633" s="1"/>
     </row>
-    <row r="634" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -22432,7 +22459,7 @@
       <c r="AD634" s="1"/>
       <c r="AE634" s="1"/>
     </row>
-    <row r="635" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -22465,7 +22492,7 @@
       <c r="AD635" s="1"/>
       <c r="AE635" s="1"/>
     </row>
-    <row r="636" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -22498,7 +22525,7 @@
       <c r="AD636" s="1"/>
       <c r="AE636" s="1"/>
     </row>
-    <row r="637" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -22531,7 +22558,7 @@
       <c r="AD637" s="1"/>
       <c r="AE637" s="1"/>
     </row>
-    <row r="638" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -22564,7 +22591,7 @@
       <c r="AD638" s="1"/>
       <c r="AE638" s="1"/>
     </row>
-    <row r="639" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -22597,7 +22624,7 @@
       <c r="AD639" s="1"/>
       <c r="AE639" s="1"/>
     </row>
-    <row r="640" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -22630,7 +22657,7 @@
       <c r="AD640" s="1"/>
       <c r="AE640" s="1"/>
     </row>
-    <row r="641" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -22663,7 +22690,7 @@
       <c r="AD641" s="1"/>
       <c r="AE641" s="1"/>
     </row>
-    <row r="642" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -22696,7 +22723,7 @@
       <c r="AD642" s="1"/>
       <c r="AE642" s="1"/>
     </row>
-    <row r="643" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -22729,7 +22756,7 @@
       <c r="AD643" s="1"/>
       <c r="AE643" s="1"/>
     </row>
-    <row r="644" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -22762,7 +22789,7 @@
       <c r="AD644" s="1"/>
       <c r="AE644" s="1"/>
     </row>
-    <row r="645" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -22795,7 +22822,7 @@
       <c r="AD645" s="1"/>
       <c r="AE645" s="1"/>
     </row>
-    <row r="646" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -22828,7 +22855,7 @@
       <c r="AD646" s="1"/>
       <c r="AE646" s="1"/>
     </row>
-    <row r="647" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -22861,7 +22888,7 @@
       <c r="AD647" s="1"/>
       <c r="AE647" s="1"/>
     </row>
-    <row r="648" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -22894,7 +22921,7 @@
       <c r="AD648" s="1"/>
       <c r="AE648" s="1"/>
     </row>
-    <row r="649" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -22927,7 +22954,7 @@
       <c r="AD649" s="1"/>
       <c r="AE649" s="1"/>
     </row>
-    <row r="650" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -22960,7 +22987,7 @@
       <c r="AD650" s="1"/>
       <c r="AE650" s="1"/>
     </row>
-    <row r="651" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22993,7 +23020,7 @@
       <c r="AD651" s="1"/>
       <c r="AE651" s="1"/>
     </row>
-    <row r="652" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -23026,7 +23053,7 @@
       <c r="AD652" s="1"/>
       <c r="AE652" s="1"/>
     </row>
-    <row r="653" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -23059,7 +23086,7 @@
       <c r="AD653" s="1"/>
       <c r="AE653" s="1"/>
     </row>
-    <row r="654" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -23092,7 +23119,7 @@
       <c r="AD654" s="1"/>
       <c r="AE654" s="1"/>
     </row>
-    <row r="655" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -23125,7 +23152,7 @@
       <c r="AD655" s="1"/>
       <c r="AE655" s="1"/>
     </row>
-    <row r="656" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -23158,7 +23185,7 @@
       <c r="AD656" s="1"/>
       <c r="AE656" s="1"/>
     </row>
-    <row r="657" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -23191,7 +23218,7 @@
       <c r="AD657" s="1"/>
       <c r="AE657" s="1"/>
     </row>
-    <row r="658" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -23224,7 +23251,7 @@
       <c r="AD658" s="1"/>
       <c r="AE658" s="1"/>
     </row>
-    <row r="659" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -23257,7 +23284,7 @@
       <c r="AD659" s="1"/>
       <c r="AE659" s="1"/>
     </row>
-    <row r="660" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -23290,7 +23317,7 @@
       <c r="AD660" s="1"/>
       <c r="AE660" s="1"/>
     </row>
-    <row r="661" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -23323,7 +23350,7 @@
       <c r="AD661" s="1"/>
       <c r="AE661" s="1"/>
     </row>
-    <row r="662" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -23356,7 +23383,7 @@
       <c r="AD662" s="1"/>
       <c r="AE662" s="1"/>
     </row>
-    <row r="663" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -23389,7 +23416,7 @@
       <c r="AD663" s="1"/>
       <c r="AE663" s="1"/>
     </row>
-    <row r="664" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -23422,7 +23449,7 @@
       <c r="AD664" s="1"/>
       <c r="AE664" s="1"/>
     </row>
-    <row r="665" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -23455,7 +23482,7 @@
       <c r="AD665" s="1"/>
       <c r="AE665" s="1"/>
     </row>
-    <row r="666" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -23488,7 +23515,7 @@
       <c r="AD666" s="1"/>
       <c r="AE666" s="1"/>
     </row>
-    <row r="667" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -23521,7 +23548,7 @@
       <c r="AD667" s="1"/>
       <c r="AE667" s="1"/>
     </row>
-    <row r="668" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -23554,7 +23581,7 @@
       <c r="AD668" s="1"/>
       <c r="AE668" s="1"/>
     </row>
-    <row r="669" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -23587,7 +23614,7 @@
       <c r="AD669" s="1"/>
       <c r="AE669" s="1"/>
     </row>
-    <row r="670" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -23620,7 +23647,7 @@
       <c r="AD670" s="1"/>
       <c r="AE670" s="1"/>
     </row>
-    <row r="671" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -23653,7 +23680,7 @@
       <c r="AD671" s="1"/>
       <c r="AE671" s="1"/>
     </row>
-    <row r="672" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -23686,7 +23713,7 @@
       <c r="AD672" s="1"/>
       <c r="AE672" s="1"/>
     </row>
-    <row r="673" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -23719,7 +23746,7 @@
       <c r="AD673" s="1"/>
       <c r="AE673" s="1"/>
     </row>
-    <row r="674" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -23752,7 +23779,7 @@
       <c r="AD674" s="1"/>
       <c r="AE674" s="1"/>
     </row>
-    <row r="675" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -23785,7 +23812,7 @@
       <c r="AD675" s="1"/>
       <c r="AE675" s="1"/>
     </row>
-    <row r="676" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -23818,7 +23845,7 @@
       <c r="AD676" s="1"/>
       <c r="AE676" s="1"/>
     </row>
-    <row r="677" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -23851,7 +23878,7 @@
       <c r="AD677" s="1"/>
       <c r="AE677" s="1"/>
     </row>
-    <row r="678" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -23884,7 +23911,7 @@
       <c r="AD678" s="1"/>
       <c r="AE678" s="1"/>
     </row>
-    <row r="679" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -23917,7 +23944,7 @@
       <c r="AD679" s="1"/>
       <c r="AE679" s="1"/>
     </row>
-    <row r="680" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23950,7 +23977,7 @@
       <c r="AD680" s="1"/>
       <c r="AE680" s="1"/>
     </row>
-    <row r="681" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23983,7 +24010,7 @@
       <c r="AD681" s="1"/>
       <c r="AE681" s="1"/>
     </row>
-    <row r="682" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -24016,7 +24043,7 @@
       <c r="AD682" s="1"/>
       <c r="AE682" s="1"/>
     </row>
-    <row r="683" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -24049,7 +24076,7 @@
       <c r="AD683" s="1"/>
       <c r="AE683" s="1"/>
     </row>
-    <row r="684" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -24082,7 +24109,7 @@
       <c r="AD684" s="1"/>
       <c r="AE684" s="1"/>
     </row>
-    <row r="685" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -24115,7 +24142,7 @@
       <c r="AD685" s="1"/>
       <c r="AE685" s="1"/>
     </row>
-    <row r="686" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -24148,7 +24175,7 @@
       <c r="AD686" s="1"/>
       <c r="AE686" s="1"/>
     </row>
-    <row r="687" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -24181,7 +24208,7 @@
       <c r="AD687" s="1"/>
       <c r="AE687" s="1"/>
     </row>
-    <row r="688" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -24214,7 +24241,7 @@
       <c r="AD688" s="1"/>
       <c r="AE688" s="1"/>
     </row>
-    <row r="689" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24247,7 +24274,7 @@
       <c r="AD689" s="1"/>
       <c r="AE689" s="1"/>
     </row>
-    <row r="690" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24280,7 +24307,7 @@
       <c r="AD690" s="1"/>
       <c r="AE690" s="1"/>
     </row>
-    <row r="691" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24313,7 +24340,7 @@
       <c r="AD691" s="1"/>
       <c r="AE691" s="1"/>
     </row>
-    <row r="692" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -24346,7 +24373,7 @@
       <c r="AD692" s="1"/>
       <c r="AE692" s="1"/>
     </row>
-    <row r="693" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -24379,7 +24406,7 @@
       <c r="AD693" s="1"/>
       <c r="AE693" s="1"/>
     </row>
-    <row r="694" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -24412,7 +24439,7 @@
       <c r="AD694" s="1"/>
       <c r="AE694" s="1"/>
     </row>
-    <row r="695" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -24445,7 +24472,7 @@
       <c r="AD695" s="1"/>
       <c r="AE695" s="1"/>
     </row>
-    <row r="696" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -24478,7 +24505,7 @@
       <c r="AD696" s="1"/>
       <c r="AE696" s="1"/>
     </row>
-    <row r="697" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -24511,7 +24538,7 @@
       <c r="AD697" s="1"/>
       <c r="AE697" s="1"/>
     </row>
-    <row r="698" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -24544,7 +24571,7 @@
       <c r="AD698" s="1"/>
       <c r="AE698" s="1"/>
     </row>
-    <row r="699" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -24577,7 +24604,7 @@
       <c r="AD699" s="1"/>
       <c r="AE699" s="1"/>
     </row>
-    <row r="700" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -24610,7 +24637,7 @@
       <c r="AD700" s="1"/>
       <c r="AE700" s="1"/>
     </row>
-    <row r="701" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -24643,7 +24670,7 @@
       <c r="AD701" s="1"/>
       <c r="AE701" s="1"/>
     </row>
-    <row r="702" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -24676,7 +24703,7 @@
       <c r="AD702" s="1"/>
       <c r="AE702" s="1"/>
     </row>
-    <row r="703" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -24709,7 +24736,7 @@
       <c r="AD703" s="1"/>
       <c r="AE703" s="1"/>
     </row>
-    <row r="704" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -24742,7 +24769,7 @@
       <c r="AD704" s="1"/>
       <c r="AE704" s="1"/>
     </row>
-    <row r="705" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -24775,7 +24802,7 @@
       <c r="AD705" s="1"/>
       <c r="AE705" s="1"/>
     </row>
-    <row r="706" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -24808,7 +24835,7 @@
       <c r="AD706" s="1"/>
       <c r="AE706" s="1"/>
     </row>
-    <row r="707" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -24841,7 +24868,7 @@
       <c r="AD707" s="1"/>
       <c r="AE707" s="1"/>
     </row>
-    <row r="708" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -24874,7 +24901,7 @@
       <c r="AD708" s="1"/>
       <c r="AE708" s="1"/>
     </row>
-    <row r="709" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -24907,7 +24934,7 @@
       <c r="AD709" s="1"/>
       <c r="AE709" s="1"/>
     </row>
-    <row r="710" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -24940,7 +24967,7 @@
       <c r="AD710" s="1"/>
       <c r="AE710" s="1"/>
     </row>
-    <row r="711" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -24973,7 +25000,7 @@
       <c r="AD711" s="1"/>
       <c r="AE711" s="1"/>
     </row>
-    <row r="712" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -25006,7 +25033,7 @@
       <c r="AD712" s="1"/>
       <c r="AE712" s="1"/>
     </row>
-    <row r="713" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -25039,7 +25066,7 @@
       <c r="AD713" s="1"/>
       <c r="AE713" s="1"/>
     </row>
-    <row r="714" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -25072,7 +25099,7 @@
       <c r="AD714" s="1"/>
       <c r="AE714" s="1"/>
     </row>
-    <row r="715" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -25105,7 +25132,7 @@
       <c r="AD715" s="1"/>
       <c r="AE715" s="1"/>
     </row>
-    <row r="716" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -25138,7 +25165,7 @@
       <c r="AD716" s="1"/>
       <c r="AE716" s="1"/>
     </row>
-    <row r="717" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -25171,7 +25198,7 @@
       <c r="AD717" s="1"/>
       <c r="AE717" s="1"/>
     </row>
-    <row r="718" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -25204,7 +25231,7 @@
       <c r="AD718" s="1"/>
       <c r="AE718" s="1"/>
     </row>
-    <row r="719" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25237,7 +25264,7 @@
       <c r="AD719" s="1"/>
       <c r="AE719" s="1"/>
     </row>
-    <row r="720" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25270,7 +25297,7 @@
       <c r="AD720" s="1"/>
       <c r="AE720" s="1"/>
     </row>
-    <row r="721" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25303,7 +25330,7 @@
       <c r="AD721" s="1"/>
       <c r="AE721" s="1"/>
     </row>
-    <row r="722" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25336,7 +25363,7 @@
       <c r="AD722" s="1"/>
       <c r="AE722" s="1"/>
     </row>
-    <row r="723" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25369,7 +25396,7 @@
       <c r="AD723" s="1"/>
       <c r="AE723" s="1"/>
     </row>
-    <row r="724" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25402,7 +25429,7 @@
       <c r="AD724" s="1"/>
       <c r="AE724" s="1"/>
     </row>
-    <row r="725" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25435,7 +25462,7 @@
       <c r="AD725" s="1"/>
       <c r="AE725" s="1"/>
     </row>
-    <row r="726" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25468,7 +25495,7 @@
       <c r="AD726" s="1"/>
       <c r="AE726" s="1"/>
     </row>
-    <row r="727" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -25501,7 +25528,7 @@
       <c r="AD727" s="1"/>
       <c r="AE727" s="1"/>
     </row>
-    <row r="728" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25534,7 +25561,7 @@
       <c r="AD728" s="1"/>
       <c r="AE728" s="1"/>
     </row>
-    <row r="729" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25567,7 +25594,7 @@
       <c r="AD729" s="1"/>
       <c r="AE729" s="1"/>
     </row>
-    <row r="730" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25600,7 +25627,7 @@
       <c r="AD730" s="1"/>
       <c r="AE730" s="1"/>
     </row>
-    <row r="731" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -25633,7 +25660,7 @@
       <c r="AD731" s="1"/>
       <c r="AE731" s="1"/>
     </row>
-    <row r="732" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -25666,7 +25693,7 @@
       <c r="AD732" s="1"/>
       <c r="AE732" s="1"/>
     </row>
-    <row r="733" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -25699,7 +25726,7 @@
       <c r="AD733" s="1"/>
       <c r="AE733" s="1"/>
     </row>
-    <row r="734" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -25732,7 +25759,7 @@
       <c r="AD734" s="1"/>
       <c r="AE734" s="1"/>
     </row>
-    <row r="735" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -25765,7 +25792,7 @@
       <c r="AD735" s="1"/>
       <c r="AE735" s="1"/>
     </row>
-    <row r="736" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -25798,7 +25825,7 @@
       <c r="AD736" s="1"/>
       <c r="AE736" s="1"/>
     </row>
-    <row r="737" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -25831,7 +25858,7 @@
       <c r="AD737" s="1"/>
       <c r="AE737" s="1"/>
     </row>
-    <row r="738" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -25864,7 +25891,7 @@
       <c r="AD738" s="1"/>
       <c r="AE738" s="1"/>
     </row>
-    <row r="739" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -25897,7 +25924,7 @@
       <c r="AD739" s="1"/>
       <c r="AE739" s="1"/>
     </row>
-    <row r="740" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -25930,7 +25957,7 @@
       <c r="AD740" s="1"/>
       <c r="AE740" s="1"/>
     </row>
-    <row r="741" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -25963,7 +25990,7 @@
       <c r="AD741" s="1"/>
       <c r="AE741" s="1"/>
     </row>
-    <row r="742" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -25996,7 +26023,7 @@
       <c r="AD742" s="1"/>
       <c r="AE742" s="1"/>
     </row>
-    <row r="743" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -26029,7 +26056,7 @@
       <c r="AD743" s="1"/>
       <c r="AE743" s="1"/>
     </row>
-    <row r="744" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -26062,7 +26089,7 @@
       <c r="AD744" s="1"/>
       <c r="AE744" s="1"/>
     </row>
-    <row r="745" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -26095,7 +26122,7 @@
       <c r="AD745" s="1"/>
       <c r="AE745" s="1"/>
     </row>
-    <row r="746" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -26128,7 +26155,7 @@
       <c r="AD746" s="1"/>
       <c r="AE746" s="1"/>
     </row>
-    <row r="747" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -26161,7 +26188,7 @@
       <c r="AD747" s="1"/>
       <c r="AE747" s="1"/>
     </row>
-    <row r="748" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -26194,7 +26221,7 @@
       <c r="AD748" s="1"/>
       <c r="AE748" s="1"/>
     </row>
-    <row r="749" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -26227,7 +26254,7 @@
       <c r="AD749" s="1"/>
       <c r="AE749" s="1"/>
     </row>
-    <row r="750" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26260,7 +26287,7 @@
       <c r="AD750" s="1"/>
       <c r="AE750" s="1"/>
     </row>
-    <row r="751" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26293,7 +26320,7 @@
       <c r="AD751" s="1"/>
       <c r="AE751" s="1"/>
     </row>
-    <row r="752" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26326,7 +26353,7 @@
       <c r="AD752" s="1"/>
       <c r="AE752" s="1"/>
     </row>
-    <row r="753" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26359,7 +26386,7 @@
       <c r="AD753" s="1"/>
       <c r="AE753" s="1"/>
     </row>
-    <row r="754" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26392,7 +26419,7 @@
       <c r="AD754" s="1"/>
       <c r="AE754" s="1"/>
     </row>
-    <row r="755" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26425,7 +26452,7 @@
       <c r="AD755" s="1"/>
       <c r="AE755" s="1"/>
     </row>
-    <row r="756" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26458,7 +26485,7 @@
       <c r="AD756" s="1"/>
       <c r="AE756" s="1"/>
     </row>
-    <row r="757" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26491,7 +26518,7 @@
       <c r="AD757" s="1"/>
       <c r="AE757" s="1"/>
     </row>
-    <row r="758" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26524,7 +26551,7 @@
       <c r="AD758" s="1"/>
       <c r="AE758" s="1"/>
     </row>
-    <row r="759" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26557,7 +26584,7 @@
       <c r="AD759" s="1"/>
       <c r="AE759" s="1"/>
     </row>
-    <row r="760" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26590,7 +26617,7 @@
       <c r="AD760" s="1"/>
       <c r="AE760" s="1"/>
     </row>
-    <row r="761" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26623,7 +26650,7 @@
       <c r="AD761" s="1"/>
       <c r="AE761" s="1"/>
     </row>
-    <row r="762" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26656,7 +26683,7 @@
       <c r="AD762" s="1"/>
       <c r="AE762" s="1"/>
     </row>
-    <row r="763" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -26689,7 +26716,7 @@
       <c r="AD763" s="1"/>
       <c r="AE763" s="1"/>
     </row>
-    <row r="764" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -26722,7 +26749,7 @@
       <c r="AD764" s="1"/>
       <c r="AE764" s="1"/>
     </row>
-    <row r="765" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -26755,7 +26782,7 @@
       <c r="AD765" s="1"/>
       <c r="AE765" s="1"/>
     </row>
-    <row r="766" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -26788,7 +26815,7 @@
       <c r="AD766" s="1"/>
       <c r="AE766" s="1"/>
     </row>
-    <row r="767" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -26821,7 +26848,7 @@
       <c r="AD767" s="1"/>
       <c r="AE767" s="1"/>
     </row>
-    <row r="768" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -26854,7 +26881,7 @@
       <c r="AD768" s="1"/>
       <c r="AE768" s="1"/>
     </row>
-    <row r="769" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -26887,7 +26914,7 @@
       <c r="AD769" s="1"/>
       <c r="AE769" s="1"/>
     </row>
-    <row r="770" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -26920,7 +26947,7 @@
       <c r="AD770" s="1"/>
       <c r="AE770" s="1"/>
     </row>
-    <row r="771" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -26953,7 +26980,7 @@
       <c r="AD771" s="1"/>
       <c r="AE771" s="1"/>
     </row>
-    <row r="772" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -26986,7 +27013,7 @@
       <c r="AD772" s="1"/>
       <c r="AE772" s="1"/>
     </row>
-    <row r="773" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -27019,7 +27046,7 @@
       <c r="AD773" s="1"/>
       <c r="AE773" s="1"/>
     </row>
-    <row r="774" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -27052,7 +27079,7 @@
       <c r="AD774" s="1"/>
       <c r="AE774" s="1"/>
     </row>
-    <row r="775" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -27085,7 +27112,7 @@
       <c r="AD775" s="1"/>
       <c r="AE775" s="1"/>
     </row>
-    <row r="776" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -27118,7 +27145,7 @@
       <c r="AD776" s="1"/>
       <c r="AE776" s="1"/>
     </row>
-    <row r="777" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -27151,7 +27178,7 @@
       <c r="AD777" s="1"/>
       <c r="AE777" s="1"/>
     </row>
-    <row r="778" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -27184,7 +27211,7 @@
       <c r="AD778" s="1"/>
       <c r="AE778" s="1"/>
     </row>
-    <row r="779" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27217,7 +27244,7 @@
       <c r="AD779" s="1"/>
       <c r="AE779" s="1"/>
     </row>
-    <row r="780" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27250,7 +27277,7 @@
       <c r="AD780" s="1"/>
       <c r="AE780" s="1"/>
     </row>
-    <row r="781" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27283,7 +27310,7 @@
       <c r="AD781" s="1"/>
       <c r="AE781" s="1"/>
     </row>
-    <row r="782" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27316,7 +27343,7 @@
       <c r="AD782" s="1"/>
       <c r="AE782" s="1"/>
     </row>
-    <row r="783" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27349,7 +27376,7 @@
       <c r="AD783" s="1"/>
       <c r="AE783" s="1"/>
     </row>
-    <row r="784" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27382,7 +27409,7 @@
       <c r="AD784" s="1"/>
       <c r="AE784" s="1"/>
     </row>
-    <row r="785" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27415,7 +27442,7 @@
       <c r="AD785" s="1"/>
       <c r="AE785" s="1"/>
     </row>
-    <row r="786" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27448,7 +27475,7 @@
       <c r="AD786" s="1"/>
       <c r="AE786" s="1"/>
     </row>
-    <row r="787" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27481,7 +27508,7 @@
       <c r="AD787" s="1"/>
       <c r="AE787" s="1"/>
     </row>
-    <row r="788" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27514,7 +27541,7 @@
       <c r="AD788" s="1"/>
       <c r="AE788" s="1"/>
     </row>
-    <row r="789" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27547,7 +27574,7 @@
       <c r="AD789" s="1"/>
       <c r="AE789" s="1"/>
     </row>
-    <row r="790" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27580,7 +27607,7 @@
       <c r="AD790" s="1"/>
       <c r="AE790" s="1"/>
     </row>
-    <row r="791" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27613,7 +27640,7 @@
       <c r="AD791" s="1"/>
       <c r="AE791" s="1"/>
     </row>
-    <row r="792" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27646,7 +27673,7 @@
       <c r="AD792" s="1"/>
       <c r="AE792" s="1"/>
     </row>
-    <row r="793" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27679,7 +27706,7 @@
       <c r="AD793" s="1"/>
       <c r="AE793" s="1"/>
     </row>
-    <row r="794" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27712,7 +27739,7 @@
       <c r="AD794" s="1"/>
       <c r="AE794" s="1"/>
     </row>
-    <row r="795" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27745,7 +27772,7 @@
       <c r="AD795" s="1"/>
       <c r="AE795" s="1"/>
     </row>
-    <row r="796" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27778,7 +27805,7 @@
       <c r="AD796" s="1"/>
       <c r="AE796" s="1"/>
     </row>
-    <row r="797" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27811,7 +27838,7 @@
       <c r="AD797" s="1"/>
       <c r="AE797" s="1"/>
     </row>
-    <row r="798" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27844,7 +27871,7 @@
       <c r="AD798" s="1"/>
       <c r="AE798" s="1"/>
     </row>
-    <row r="799" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -27877,7 +27904,7 @@
       <c r="AD799" s="1"/>
       <c r="AE799" s="1"/>
     </row>
-    <row r="800" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -27910,7 +27937,7 @@
       <c r="AD800" s="1"/>
       <c r="AE800" s="1"/>
     </row>
-    <row r="801" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -27943,7 +27970,7 @@
       <c r="AD801" s="1"/>
       <c r="AE801" s="1"/>
     </row>
-    <row r="802" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -27976,7 +28003,7 @@
       <c r="AD802" s="1"/>
       <c r="AE802" s="1"/>
     </row>
-    <row r="803" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -28009,7 +28036,7 @@
       <c r="AD803" s="1"/>
       <c r="AE803" s="1"/>
     </row>
-    <row r="804" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -28042,7 +28069,7 @@
       <c r="AD804" s="1"/>
       <c r="AE804" s="1"/>
     </row>
-    <row r="805" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -28075,7 +28102,7 @@
       <c r="AD805" s="1"/>
       <c r="AE805" s="1"/>
     </row>
-    <row r="806" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28108,7 +28135,7 @@
       <c r="AD806" s="1"/>
       <c r="AE806" s="1"/>
     </row>
-    <row r="807" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28141,7 +28168,7 @@
       <c r="AD807" s="1"/>
       <c r="AE807" s="1"/>
     </row>
-    <row r="808" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28174,7 +28201,7 @@
       <c r="AD808" s="1"/>
       <c r="AE808" s="1"/>
     </row>
-    <row r="809" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28207,7 +28234,7 @@
       <c r="AD809" s="1"/>
       <c r="AE809" s="1"/>
     </row>
-    <row r="810" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28240,7 +28267,7 @@
       <c r="AD810" s="1"/>
       <c r="AE810" s="1"/>
     </row>
-    <row r="811" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28273,7 +28300,7 @@
       <c r="AD811" s="1"/>
       <c r="AE811" s="1"/>
     </row>
-    <row r="812" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28306,7 +28333,7 @@
       <c r="AD812" s="1"/>
       <c r="AE812" s="1"/>
     </row>
-    <row r="813" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28339,7 +28366,7 @@
       <c r="AD813" s="1"/>
       <c r="AE813" s="1"/>
     </row>
-    <row r="814" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28372,7 +28399,7 @@
       <c r="AD814" s="1"/>
       <c r="AE814" s="1"/>
     </row>
-    <row r="815" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28405,7 +28432,7 @@
       <c r="AD815" s="1"/>
       <c r="AE815" s="1"/>
     </row>
-    <row r="816" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28438,7 +28465,7 @@
       <c r="AD816" s="1"/>
       <c r="AE816" s="1"/>
     </row>
-    <row r="817" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28471,7 +28498,7 @@
       <c r="AD817" s="1"/>
       <c r="AE817" s="1"/>
     </row>
-    <row r="818" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28504,7 +28531,7 @@
       <c r="AD818" s="1"/>
       <c r="AE818" s="1"/>
     </row>
-    <row r="819" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28537,7 +28564,7 @@
       <c r="AD819" s="1"/>
       <c r="AE819" s="1"/>
     </row>
-    <row r="820" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28570,7 +28597,7 @@
       <c r="AD820" s="1"/>
       <c r="AE820" s="1"/>
     </row>
-    <row r="821" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28603,7 +28630,7 @@
       <c r="AD821" s="1"/>
       <c r="AE821" s="1"/>
     </row>
-    <row r="822" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28636,7 +28663,7 @@
       <c r="AD822" s="1"/>
       <c r="AE822" s="1"/>
     </row>
-    <row r="823" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28669,7 +28696,7 @@
       <c r="AD823" s="1"/>
       <c r="AE823" s="1"/>
     </row>
-    <row r="824" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28702,7 +28729,7 @@
       <c r="AD824" s="1"/>
       <c r="AE824" s="1"/>
     </row>
-    <row r="825" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28735,7 +28762,7 @@
       <c r="AD825" s="1"/>
       <c r="AE825" s="1"/>
     </row>
-    <row r="826" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28768,7 +28795,7 @@
       <c r="AD826" s="1"/>
       <c r="AE826" s="1"/>
     </row>
-    <row r="827" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28801,7 +28828,7 @@
       <c r="AD827" s="1"/>
       <c r="AE827" s="1"/>
     </row>
-    <row r="828" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28834,7 +28861,7 @@
       <c r="AD828" s="1"/>
       <c r="AE828" s="1"/>
     </row>
-    <row r="829" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28867,7 +28894,7 @@
       <c r="AD829" s="1"/>
       <c r="AE829" s="1"/>
     </row>
-    <row r="830" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -28900,7 +28927,7 @@
       <c r="AD830" s="1"/>
       <c r="AE830" s="1"/>
     </row>
-    <row r="831" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -28933,7 +28960,7 @@
       <c r="AD831" s="1"/>
       <c r="AE831" s="1"/>
     </row>
-    <row r="832" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -28966,7 +28993,7 @@
       <c r="AD832" s="1"/>
       <c r="AE832" s="1"/>
     </row>
-    <row r="833" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -28999,7 +29026,7 @@
       <c r="AD833" s="1"/>
       <c r="AE833" s="1"/>
     </row>
-    <row r="834" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -29032,7 +29059,7 @@
       <c r="AD834" s="1"/>
       <c r="AE834" s="1"/>
     </row>
-    <row r="835" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -29065,7 +29092,7 @@
       <c r="AD835" s="1"/>
       <c r="AE835" s="1"/>
     </row>
-    <row r="836" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29098,7 +29125,7 @@
       <c r="AD836" s="1"/>
       <c r="AE836" s="1"/>
     </row>
-    <row r="837" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29131,7 +29158,7 @@
       <c r="AD837" s="1"/>
       <c r="AE837" s="1"/>
     </row>
-    <row r="838" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29164,7 +29191,7 @@
       <c r="AD838" s="1"/>
       <c r="AE838" s="1"/>
     </row>
-    <row r="839" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29197,7 +29224,7 @@
       <c r="AD839" s="1"/>
       <c r="AE839" s="1"/>
     </row>
-    <row r="840" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29230,7 +29257,7 @@
       <c r="AD840" s="1"/>
       <c r="AE840" s="1"/>
     </row>
-    <row r="841" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29263,7 +29290,7 @@
       <c r="AD841" s="1"/>
       <c r="AE841" s="1"/>
     </row>
-    <row r="842" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29296,7 +29323,7 @@
       <c r="AD842" s="1"/>
       <c r="AE842" s="1"/>
     </row>
-    <row r="843" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29329,7 +29356,7 @@
       <c r="AD843" s="1"/>
       <c r="AE843" s="1"/>
     </row>
-    <row r="844" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29362,7 +29389,7 @@
       <c r="AD844" s="1"/>
       <c r="AE844" s="1"/>
     </row>
-    <row r="845" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29395,7 +29422,7 @@
       <c r="AD845" s="1"/>
       <c r="AE845" s="1"/>
     </row>
-    <row r="846" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29428,7 +29455,7 @@
       <c r="AD846" s="1"/>
       <c r="AE846" s="1"/>
     </row>
-    <row r="847" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29461,7 +29488,7 @@
       <c r="AD847" s="1"/>
       <c r="AE847" s="1"/>
     </row>
-    <row r="848" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29494,7 +29521,7 @@
       <c r="AD848" s="1"/>
       <c r="AE848" s="1"/>
     </row>
-    <row r="849" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29527,7 +29554,7 @@
       <c r="AD849" s="1"/>
       <c r="AE849" s="1"/>
     </row>
-    <row r="850" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29560,7 +29587,7 @@
       <c r="AD850" s="1"/>
       <c r="AE850" s="1"/>
     </row>
-    <row r="851" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29593,7 +29620,7 @@
       <c r="AD851" s="1"/>
       <c r="AE851" s="1"/>
     </row>
-    <row r="852" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29626,7 +29653,7 @@
       <c r="AD852" s="1"/>
       <c r="AE852" s="1"/>
     </row>
-    <row r="853" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29659,7 +29686,7 @@
       <c r="AD853" s="1"/>
       <c r="AE853" s="1"/>
     </row>
-    <row r="854" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29692,7 +29719,7 @@
       <c r="AD854" s="1"/>
       <c r="AE854" s="1"/>
     </row>
-    <row r="855" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29725,7 +29752,7 @@
       <c r="AD855" s="1"/>
       <c r="AE855" s="1"/>
     </row>
-    <row r="856" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -29758,7 +29785,7 @@
       <c r="AD856" s="1"/>
       <c r="AE856" s="1"/>
     </row>
-    <row r="857" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -29791,7 +29818,7 @@
       <c r="AD857" s="1"/>
       <c r="AE857" s="1"/>
     </row>
-    <row r="858" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -29824,7 +29851,7 @@
       <c r="AD858" s="1"/>
       <c r="AE858" s="1"/>
     </row>
-    <row r="859" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -29857,7 +29884,7 @@
       <c r="AD859" s="1"/>
       <c r="AE859" s="1"/>
     </row>
-    <row r="860" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -29890,7 +29917,7 @@
       <c r="AD860" s="1"/>
       <c r="AE860" s="1"/>
     </row>
-    <row r="861" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -29923,7 +29950,7 @@
       <c r="AD861" s="1"/>
       <c r="AE861" s="1"/>
     </row>
-    <row r="862" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -29956,7 +29983,7 @@
       <c r="AD862" s="1"/>
       <c r="AE862" s="1"/>
     </row>
-    <row r="863" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -29989,7 +30016,7 @@
       <c r="AD863" s="1"/>
       <c r="AE863" s="1"/>
     </row>
-    <row r="864" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -30022,7 +30049,7 @@
       <c r="AD864" s="1"/>
       <c r="AE864" s="1"/>
     </row>
-    <row r="865" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -30055,7 +30082,7 @@
       <c r="AD865" s="1"/>
       <c r="AE865" s="1"/>
     </row>
-    <row r="866" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -30088,7 +30115,7 @@
       <c r="AD866" s="1"/>
       <c r="AE866" s="1"/>
     </row>
-    <row r="867" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -30121,7 +30148,7 @@
       <c r="AD867" s="1"/>
       <c r="AE867" s="1"/>
     </row>
-    <row r="868" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -30154,7 +30181,7 @@
       <c r="AD868" s="1"/>
       <c r="AE868" s="1"/>
     </row>
-    <row r="869" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -30187,7 +30214,7 @@
       <c r="AD869" s="1"/>
       <c r="AE869" s="1"/>
     </row>
-    <row r="870" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30220,7 +30247,7 @@
       <c r="AD870" s="1"/>
       <c r="AE870" s="1"/>
     </row>
-    <row r="871" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30253,7 +30280,7 @@
       <c r="AD871" s="1"/>
       <c r="AE871" s="1"/>
     </row>
-    <row r="872" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30286,7 +30313,7 @@
       <c r="AD872" s="1"/>
       <c r="AE872" s="1"/>
     </row>
-    <row r="873" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30319,7 +30346,7 @@
       <c r="AD873" s="1"/>
       <c r="AE873" s="1"/>
     </row>
-    <row r="874" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30352,7 +30379,7 @@
       <c r="AD874" s="1"/>
       <c r="AE874" s="1"/>
     </row>
-    <row r="875" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30385,7 +30412,7 @@
       <c r="AD875" s="1"/>
       <c r="AE875" s="1"/>
     </row>
-    <row r="876" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30418,7 +30445,7 @@
       <c r="AD876" s="1"/>
       <c r="AE876" s="1"/>
     </row>
-    <row r="877" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30451,7 +30478,7 @@
       <c r="AD877" s="1"/>
       <c r="AE877" s="1"/>
     </row>
-    <row r="878" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30484,7 +30511,7 @@
       <c r="AD878" s="1"/>
       <c r="AE878" s="1"/>
     </row>
-    <row r="879" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30517,7 +30544,7 @@
       <c r="AD879" s="1"/>
       <c r="AE879" s="1"/>
     </row>
-    <row r="880" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30550,7 +30577,7 @@
       <c r="AD880" s="1"/>
       <c r="AE880" s="1"/>
     </row>
-    <row r="881" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -30583,7 +30610,7 @@
       <c r="AD881" s="1"/>
       <c r="AE881" s="1"/>
     </row>
-    <row r="882" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -30616,7 +30643,7 @@
       <c r="AD882" s="1"/>
       <c r="AE882" s="1"/>
     </row>
-    <row r="883" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -30649,7 +30676,7 @@
       <c r="AD883" s="1"/>
       <c r="AE883" s="1"/>
     </row>
-    <row r="884" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -30682,7 +30709,7 @@
       <c r="AD884" s="1"/>
       <c r="AE884" s="1"/>
     </row>
-    <row r="885" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -30715,7 +30742,7 @@
       <c r="AD885" s="1"/>
       <c r="AE885" s="1"/>
     </row>
-    <row r="886" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -30748,7 +30775,7 @@
       <c r="AD886" s="1"/>
       <c r="AE886" s="1"/>
     </row>
-    <row r="887" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -30781,7 +30808,7 @@
       <c r="AD887" s="1"/>
       <c r="AE887" s="1"/>
     </row>
-    <row r="888" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -30814,7 +30841,7 @@
       <c r="AD888" s="1"/>
       <c r="AE888" s="1"/>
     </row>
-    <row r="889" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -30847,7 +30874,7 @@
       <c r="AD889" s="1"/>
       <c r="AE889" s="1"/>
     </row>
-    <row r="890" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -30880,7 +30907,7 @@
       <c r="AD890" s="1"/>
       <c r="AE890" s="1"/>
     </row>
-    <row r="891" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -30913,7 +30940,7 @@
       <c r="AD891" s="1"/>
       <c r="AE891" s="1"/>
     </row>
-    <row r="892" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -30946,7 +30973,7 @@
       <c r="AD892" s="1"/>
       <c r="AE892" s="1"/>
     </row>
-    <row r="893" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -30979,7 +31006,7 @@
       <c r="AD893" s="1"/>
       <c r="AE893" s="1"/>
     </row>
-    <row r="894" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -31012,7 +31039,7 @@
       <c r="AD894" s="1"/>
       <c r="AE894" s="1"/>
     </row>
-    <row r="895" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -31045,7 +31072,7 @@
       <c r="AD895" s="1"/>
       <c r="AE895" s="1"/>
     </row>
-    <row r="896" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -31078,7 +31105,7 @@
       <c r="AD896" s="1"/>
       <c r="AE896" s="1"/>
     </row>
-    <row r="897" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -31111,7 +31138,7 @@
       <c r="AD897" s="1"/>
       <c r="AE897" s="1"/>
     </row>
-    <row r="898" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -31144,7 +31171,7 @@
       <c r="AD898" s="1"/>
       <c r="AE898" s="1"/>
     </row>
-    <row r="899" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -31177,7 +31204,7 @@
       <c r="AD899" s="1"/>
       <c r="AE899" s="1"/>
     </row>
-    <row r="900" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -31210,7 +31237,7 @@
       <c r="AD900" s="1"/>
       <c r="AE900" s="1"/>
     </row>
-    <row r="901" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31243,7 +31270,7 @@
       <c r="AD901" s="1"/>
       <c r="AE901" s="1"/>
     </row>
-    <row r="902" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31276,7 +31303,7 @@
       <c r="AD902" s="1"/>
       <c r="AE902" s="1"/>
     </row>
-    <row r="903" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31309,7 +31336,7 @@
       <c r="AD903" s="1"/>
       <c r="AE903" s="1"/>
     </row>
-    <row r="904" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31342,7 +31369,7 @@
       <c r="AD904" s="1"/>
       <c r="AE904" s="1"/>
     </row>
-    <row r="905" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31375,7 +31402,7 @@
       <c r="AD905" s="1"/>
       <c r="AE905" s="1"/>
     </row>
-    <row r="906" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31408,7 +31435,7 @@
       <c r="AD906" s="1"/>
       <c r="AE906" s="1"/>
     </row>
-    <row r="907" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -31441,7 +31468,7 @@
       <c r="AD907" s="1"/>
       <c r="AE907" s="1"/>
     </row>
-    <row r="908" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -31474,7 +31501,7 @@
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
     </row>
-    <row r="909" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -31507,7 +31534,7 @@
       <c r="AD909" s="1"/>
       <c r="AE909" s="1"/>
     </row>
-    <row r="910" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -31540,7 +31567,7 @@
       <c r="AD910" s="1"/>
       <c r="AE910" s="1"/>
     </row>
-    <row r="911" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -31573,7 +31600,7 @@
       <c r="AD911" s="1"/>
       <c r="AE911" s="1"/>
     </row>
-    <row r="912" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -31606,7 +31633,7 @@
       <c r="AD912" s="1"/>
       <c r="AE912" s="1"/>
     </row>
-    <row r="913" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -31639,7 +31666,7 @@
       <c r="AD913" s="1"/>
       <c r="AE913" s="1"/>
     </row>
-    <row r="914" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -31672,7 +31699,7 @@
       <c r="AD914" s="1"/>
       <c r="AE914" s="1"/>
     </row>
-    <row r="915" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -31705,7 +31732,7 @@
       <c r="AD915" s="1"/>
       <c r="AE915" s="1"/>
     </row>
-    <row r="916" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -31738,7 +31765,7 @@
       <c r="AD916" s="1"/>
       <c r="AE916" s="1"/>
     </row>
-    <row r="917" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -31771,7 +31798,7 @@
       <c r="AD917" s="1"/>
       <c r="AE917" s="1"/>
     </row>
-    <row r="918" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -31804,7 +31831,7 @@
       <c r="AD918" s="1"/>
       <c r="AE918" s="1"/>
     </row>
-    <row r="919" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -31837,7 +31864,7 @@
       <c r="AD919" s="1"/>
       <c r="AE919" s="1"/>
     </row>
-    <row r="920" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -31870,7 +31897,7 @@
       <c r="AD920" s="1"/>
       <c r="AE920" s="1"/>
     </row>
-    <row r="921" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -31903,7 +31930,7 @@
       <c r="AD921" s="1"/>
       <c r="AE921" s="1"/>
     </row>
-    <row r="922" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -31936,7 +31963,7 @@
       <c r="AD922" s="1"/>
       <c r="AE922" s="1"/>
     </row>
-    <row r="923" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -31969,7 +31996,7 @@
       <c r="AD923" s="1"/>
       <c r="AE923" s="1"/>
     </row>
-    <row r="924" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -32002,7 +32029,7 @@
       <c r="AD924" s="1"/>
       <c r="AE924" s="1"/>
     </row>
-    <row r="925" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -32035,7 +32062,7 @@
       <c r="AD925" s="1"/>
       <c r="AE925" s="1"/>
     </row>
-    <row r="926" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -32068,7 +32095,7 @@
       <c r="AD926" s="1"/>
       <c r="AE926" s="1"/>
     </row>
-    <row r="927" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -32101,7 +32128,7 @@
       <c r="AD927" s="1"/>
       <c r="AE927" s="1"/>
     </row>
-    <row r="928" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -32134,7 +32161,7 @@
       <c r="AD928" s="1"/>
       <c r="AE928" s="1"/>
     </row>
-    <row r="929" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -32167,7 +32194,7 @@
       <c r="AD929" s="1"/>
       <c r="AE929" s="1"/>
     </row>
-    <row r="930" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -32200,7 +32227,7 @@
       <c r="AD930" s="1"/>
       <c r="AE930" s="1"/>
     </row>
-    <row r="931" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -32233,7 +32260,7 @@
       <c r="AD931" s="1"/>
       <c r="AE931" s="1"/>
     </row>
-    <row r="932" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -32266,7 +32293,7 @@
       <c r="AD932" s="1"/>
       <c r="AE932" s="1"/>
     </row>
-    <row r="933" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -32299,7 +32326,7 @@
       <c r="AD933" s="1"/>
       <c r="AE933" s="1"/>
     </row>
-    <row r="934" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -32332,7 +32359,7 @@
       <c r="AD934" s="1"/>
       <c r="AE934" s="1"/>
     </row>
-    <row r="935" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -32365,7 +32392,7 @@
       <c r="AD935" s="1"/>
       <c r="AE935" s="1"/>
     </row>
-    <row r="936" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -32398,7 +32425,7 @@
       <c r="AD936" s="1"/>
       <c r="AE936" s="1"/>
     </row>
-    <row r="937" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -32431,7 +32458,7 @@
       <c r="AD937" s="1"/>
       <c r="AE937" s="1"/>
     </row>
-    <row r="938" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -32464,7 +32491,7 @@
       <c r="AD938" s="1"/>
       <c r="AE938" s="1"/>
     </row>
-    <row r="939" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -32497,7 +32524,7 @@
       <c r="AD939" s="1"/>
       <c r="AE939" s="1"/>
     </row>
-    <row r="940" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -32530,7 +32557,7 @@
       <c r="AD940" s="1"/>
       <c r="AE940" s="1"/>
     </row>
-    <row r="941" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -32563,7 +32590,7 @@
       <c r="AD941" s="1"/>
       <c r="AE941" s="1"/>
     </row>
-    <row r="942" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -32596,7 +32623,7 @@
       <c r="AD942" s="1"/>
       <c r="AE942" s="1"/>
     </row>
-    <row r="943" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -32629,7 +32656,7 @@
       <c r="AD943" s="1"/>
       <c r="AE943" s="1"/>
     </row>
-    <row r="944" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -32662,7 +32689,7 @@
       <c r="AD944" s="1"/>
       <c r="AE944" s="1"/>
     </row>
-    <row r="945" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -32695,7 +32722,7 @@
       <c r="AD945" s="1"/>
       <c r="AE945" s="1"/>
     </row>
-    <row r="946" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -32728,7 +32755,7 @@
       <c r="AD946" s="1"/>
       <c r="AE946" s="1"/>
     </row>
-    <row r="947" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -32761,7 +32788,7 @@
       <c r="AD947" s="1"/>
       <c r="AE947" s="1"/>
     </row>
-    <row r="948" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -32794,7 +32821,7 @@
       <c r="AD948" s="1"/>
       <c r="AE948" s="1"/>
     </row>
-    <row r="949" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -32827,7 +32854,7 @@
       <c r="AD949" s="1"/>
       <c r="AE949" s="1"/>
     </row>
-    <row r="950" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -32860,7 +32887,7 @@
       <c r="AD950" s="1"/>
       <c r="AE950" s="1"/>
     </row>
-    <row r="951" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -32893,7 +32920,7 @@
       <c r="AD951" s="1"/>
       <c r="AE951" s="1"/>
     </row>
-    <row r="952" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -32926,7 +32953,7 @@
       <c r="AD952" s="1"/>
       <c r="AE952" s="1"/>
     </row>
-    <row r="953" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -32959,7 +32986,7 @@
       <c r="AD953" s="1"/>
       <c r="AE953" s="1"/>
     </row>
-    <row r="954" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -32992,7 +33019,7 @@
       <c r="AD954" s="1"/>
       <c r="AE954" s="1"/>
     </row>
-    <row r="955" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -33025,7 +33052,7 @@
       <c r="AD955" s="1"/>
       <c r="AE955" s="1"/>
     </row>
-    <row r="956" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -33058,7 +33085,7 @@
       <c r="AD956" s="1"/>
       <c r="AE956" s="1"/>
     </row>
-    <row r="957" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -33091,7 +33118,7 @@
       <c r="AD957" s="1"/>
       <c r="AE957" s="1"/>
     </row>
-    <row r="958" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -33124,7 +33151,7 @@
       <c r="AD958" s="1"/>
       <c r="AE958" s="1"/>
     </row>
-    <row r="959" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -33157,7 +33184,7 @@
       <c r="AD959" s="1"/>
       <c r="AE959" s="1"/>
     </row>
-    <row r="960" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -33190,7 +33217,7 @@
       <c r="AD960" s="1"/>
       <c r="AE960" s="1"/>
     </row>
-    <row r="961" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -33223,7 +33250,7 @@
       <c r="AD961" s="1"/>
       <c r="AE961" s="1"/>
     </row>
-    <row r="962" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -33256,7 +33283,7 @@
       <c r="AD962" s="1"/>
       <c r="AE962" s="1"/>
     </row>
-    <row r="963" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -33289,7 +33316,7 @@
       <c r="AD963" s="1"/>
       <c r="AE963" s="1"/>
     </row>
-    <row r="964" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -33322,7 +33349,7 @@
       <c r="AD964" s="1"/>
       <c r="AE964" s="1"/>
     </row>
-    <row r="965" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -33355,7 +33382,7 @@
       <c r="AD965" s="1"/>
       <c r="AE965" s="1"/>
     </row>
-    <row r="966" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -33388,7 +33415,7 @@
       <c r="AD966" s="1"/>
       <c r="AE966" s="1"/>
     </row>
-    <row r="967" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -33421,7 +33448,7 @@
       <c r="AD967" s="1"/>
       <c r="AE967" s="1"/>
     </row>
-    <row r="968" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -33454,7 +33481,7 @@
       <c r="AD968" s="1"/>
       <c r="AE968" s="1"/>
     </row>
-    <row r="969" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -33487,7 +33514,7 @@
       <c r="AD969" s="1"/>
       <c r="AE969" s="1"/>
     </row>
-    <row r="970" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -33520,7 +33547,7 @@
       <c r="AD970" s="1"/>
       <c r="AE970" s="1"/>
     </row>
-    <row r="971" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -33553,7 +33580,7 @@
       <c r="AD971" s="1"/>
       <c r="AE971" s="1"/>
     </row>
-    <row r="972" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -33586,7 +33613,7 @@
       <c r="AD972" s="1"/>
       <c r="AE972" s="1"/>
     </row>
-    <row r="973" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -33619,7 +33646,7 @@
       <c r="AD973" s="1"/>
       <c r="AE973" s="1"/>
     </row>
-    <row r="974" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -33652,7 +33679,7 @@
       <c r="AD974" s="1"/>
       <c r="AE974" s="1"/>
     </row>
-    <row r="975" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -33685,7 +33712,7 @@
       <c r="AD975" s="1"/>
       <c r="AE975" s="1"/>
     </row>
-    <row r="976" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -33718,7 +33745,7 @@
       <c r="AD976" s="1"/>
       <c r="AE976" s="1"/>
     </row>
-    <row r="977" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -33751,7 +33778,7 @@
       <c r="AD977" s="1"/>
       <c r="AE977" s="1"/>
     </row>
-    <row r="978" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -33784,7 +33811,7 @@
       <c r="AD978" s="1"/>
       <c r="AE978" s="1"/>
     </row>
-    <row r="979" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -33817,7 +33844,7 @@
       <c r="AD979" s="1"/>
       <c r="AE979" s="1"/>
     </row>
-    <row r="980" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -33850,7 +33877,7 @@
       <c r="AD980" s="1"/>
       <c r="AE980" s="1"/>
     </row>
-    <row r="981" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -33883,7 +33910,7 @@
       <c r="AD981" s="1"/>
       <c r="AE981" s="1"/>
     </row>
-    <row r="982" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -33916,7 +33943,7 @@
       <c r="AD982" s="1"/>
       <c r="AE982" s="1"/>
     </row>
-    <row r="983" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -33949,7 +33976,7 @@
       <c r="AD983" s="1"/>
       <c r="AE983" s="1"/>
     </row>
-    <row r="984" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -33982,7 +34009,7 @@
       <c r="AD984" s="1"/>
       <c r="AE984" s="1"/>
     </row>
-    <row r="985" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -34015,7 +34042,7 @@
       <c r="AD985" s="1"/>
       <c r="AE985" s="1"/>
     </row>
-    <row r="986" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -34048,7 +34075,7 @@
       <c r="AD986" s="1"/>
       <c r="AE986" s="1"/>
     </row>
-    <row r="987" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -34081,7 +34108,7 @@
       <c r="AD987" s="1"/>
       <c r="AE987" s="1"/>
     </row>
-    <row r="988" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -34114,7 +34141,7 @@
       <c r="AD988" s="1"/>
       <c r="AE988" s="1"/>
     </row>
-    <row r="989" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -34147,7 +34174,7 @@
       <c r="AD989" s="1"/>
       <c r="AE989" s="1"/>
     </row>
-    <row r="990" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -34180,7 +34207,7 @@
       <c r="AD990" s="1"/>
       <c r="AE990" s="1"/>
     </row>
-    <row r="991" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -34213,7 +34240,7 @@
       <c r="AD991" s="1"/>
       <c r="AE991" s="1"/>
     </row>
-    <row r="992" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -34246,7 +34273,7 @@
       <c r="AD992" s="1"/>
       <c r="AE992" s="1"/>
     </row>
-    <row r="993" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -34279,7 +34306,7 @@
       <c r="AD993" s="1"/>
       <c r="AE993" s="1"/>
     </row>
-    <row r="994" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -34312,7 +34339,7 @@
       <c r="AD994" s="1"/>
       <c r="AE994" s="1"/>
     </row>
-    <row r="995" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -34345,7 +34372,7 @@
       <c r="AD995" s="1"/>
       <c r="AE995" s="1"/>
     </row>
-    <row r="996" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -34378,7 +34405,7 @@
       <c r="AD996" s="1"/>
       <c r="AE996" s="1"/>
     </row>
-    <row r="997" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -34411,7 +34438,7 @@
       <c r="AD997" s="1"/>
       <c r="AE997" s="1"/>
     </row>
-    <row r="998" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -34444,7 +34471,7 @@
       <c r="AD998" s="1"/>
       <c r="AE998" s="1"/>
     </row>
-    <row r="999" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -34477,7 +34504,7 @@
       <c r="AD999" s="1"/>
       <c r="AE999" s="1"/>
     </row>
-    <row r="1000" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -34510,7 +34537,7 @@
       <c r="AD1000" s="1"/>
       <c r="AE1000" s="1"/>
     </row>
-    <row r="1001" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -34543,7 +34570,7 @@
       <c r="AD1001" s="1"/>
       <c r="AE1001" s="1"/>
     </row>
-    <row r="1002" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -34576,7 +34603,7 @@
       <c r="AD1002" s="1"/>
       <c r="AE1002" s="1"/>
     </row>
-    <row r="1003" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -34609,7 +34636,7 @@
       <c r="AD1003" s="1"/>
       <c r="AE1003" s="1"/>
     </row>
-    <row r="1004" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -34642,7 +34669,7 @@
       <c r="AD1004" s="1"/>
       <c r="AE1004" s="1"/>
     </row>
-    <row r="1005" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -34675,7 +34702,7 @@
       <c r="AD1005" s="1"/>
       <c r="AE1005" s="1"/>
     </row>
-    <row r="1006" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -34708,7 +34735,7 @@
       <c r="AD1006" s="1"/>
       <c r="AE1006" s="1"/>
     </row>
-    <row r="1007" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
       <c r="B1007" s="1"/>
       <c r="C1007" s="1"/>
@@ -34741,7 +34768,7 @@
       <c r="AD1007" s="1"/>
       <c r="AE1007" s="1"/>
     </row>
-    <row r="1008" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1"/>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
@@ -34774,7 +34801,7 @@
       <c r="AD1008" s="1"/>
       <c r="AE1008" s="1"/>
     </row>
-    <row r="1009" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1"/>
       <c r="B1009" s="1"/>
       <c r="C1009" s="1"/>
@@ -34807,7 +34834,7 @@
       <c r="AD1009" s="1"/>
       <c r="AE1009" s="1"/>
     </row>
-    <row r="1010" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1"/>
       <c r="B1010" s="1"/>
       <c r="C1010" s="1"/>
@@ -34840,7 +34867,7 @@
       <c r="AD1010" s="1"/>
       <c r="AE1010" s="1"/>
     </row>
-    <row r="1011" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1"/>
       <c r="B1011" s="1"/>
       <c r="C1011" s="1"/>
@@ -34873,7 +34900,7 @@
       <c r="AD1011" s="1"/>
       <c r="AE1011" s="1"/>
     </row>
-    <row r="1012" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1"/>
       <c r="B1012" s="1"/>
       <c r="C1012" s="1"/>
@@ -34906,7 +34933,7 @@
       <c r="AD1012" s="1"/>
       <c r="AE1012" s="1"/>
     </row>
-    <row r="1013" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1"/>
       <c r="B1013" s="1"/>
       <c r="C1013" s="1"/>
@@ -34939,7 +34966,7 @@
       <c r="AD1013" s="1"/>
       <c r="AE1013" s="1"/>
     </row>
-    <row r="1014" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -34972,7 +34999,7 @@
       <c r="AD1014" s="1"/>
       <c r="AE1014" s="1"/>
     </row>
-    <row r="1015" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
@@ -35005,7 +35032,7 @@
       <c r="AD1015" s="1"/>
       <c r="AE1015" s="1"/>
     </row>
-    <row r="1016" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
@@ -35038,7 +35065,7 @@
       <c r="AD1016" s="1"/>
       <c r="AE1016" s="1"/>
     </row>
-    <row r="1017" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
@@ -35071,7 +35098,7 @@
       <c r="AD1017" s="1"/>
       <c r="AE1017" s="1"/>
     </row>
-    <row r="1018" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
@@ -35104,7 +35131,7 @@
       <c r="AD1018" s="1"/>
       <c r="AE1018" s="1"/>
     </row>
-    <row r="1019" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
@@ -35137,7 +35164,7 @@
       <c r="AD1019" s="1"/>
       <c r="AE1019" s="1"/>
     </row>
-    <row r="1020" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
@@ -35170,7 +35197,7 @@
       <c r="AD1020" s="1"/>
       <c r="AE1020" s="1"/>
     </row>
-    <row r="1021" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
@@ -35203,7 +35230,7 @@
       <c r="AD1021" s="1"/>
       <c r="AE1021" s="1"/>
     </row>
-    <row r="1022" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
@@ -35236,7 +35263,7 @@
       <c r="AD1022" s="1"/>
       <c r="AE1022" s="1"/>
     </row>
-    <row r="1023" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
@@ -35269,7 +35296,7 @@
       <c r="AD1023" s="1"/>
       <c r="AE1023" s="1"/>
     </row>
-    <row r="1024" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
@@ -35302,7 +35329,7 @@
       <c r="AD1024" s="1"/>
       <c r="AE1024" s="1"/>
     </row>
-    <row r="1025" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
@@ -35335,7 +35362,7 @@
       <c r="AD1025" s="1"/>
       <c r="AE1025" s="1"/>
     </row>
-    <row r="1026" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
@@ -35368,7 +35395,7 @@
       <c r="AD1026" s="1"/>
       <c r="AE1026" s="1"/>
     </row>
-    <row r="1027" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
@@ -35401,7 +35428,7 @@
       <c r="AD1027" s="1"/>
       <c r="AE1027" s="1"/>
     </row>
-    <row r="1028" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
@@ -35434,7 +35461,7 @@
       <c r="AD1028" s="1"/>
       <c r="AE1028" s="1"/>
     </row>
-    <row r="1029" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
@@ -35467,7 +35494,7 @@
       <c r="AD1029" s="1"/>
       <c r="AE1029" s="1"/>
     </row>
-    <row r="1030" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
@@ -35500,7 +35527,7 @@
       <c r="AD1030" s="1"/>
       <c r="AE1030" s="1"/>
     </row>
-    <row r="1031" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
@@ -35532,7 +35559,7 @@
       <c r="AD1031" s="1"/>
       <c r="AE1031" s="1"/>
     </row>
-    <row r="1032" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -35562,7 +35589,7 @@
       <c r="AD1032" s="1"/>
       <c r="AE1032" s="1"/>
     </row>
-    <row r="1033" spans="1:31" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:31" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -35771,17 +35798,17 @@
       <formula>NOT(ISERROR(SEARCH("Not Started",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I36:I39 I32:I34 I15:I20 I22:I24 I26:I30 I3:I13">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I36:I39 I32:I34 I15:I20 I22:I24 I26:I30 I3:I13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E39 E15:E20 E22:E24 E26:E30 E32:E34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E39 E15:E20 E22:E24 E26:E30 E32:E34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="K4:K5">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="K4:K5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$A$23:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>
